--- a/RABackup/12Sets.xlsx
+++ b/RABackup/12Sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsingh/Desktop/CALLAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF75AF-461D-0D49-A160-EFADE538C398}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE20F1-C73B-6745-8690-BCE007517A8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="0" windowWidth="18300" windowHeight="18000" xr2:uid="{6679CA10-1F33-DE46-962D-9E20D9BBDDEE}"/>
+    <workbookView xWindow="10780" yWindow="0" windowWidth="18020" windowHeight="18000" xr2:uid="{6679CA10-1F33-DE46-962D-9E20D9BBDDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Chain</t>
   </si>
@@ -76,12 +76,21 @@
   <si>
     <t>1.2,1</t>
   </si>
+  <si>
+    <t>1,2.3</t>
+  </si>
+  <si>
+    <t>1.2,2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3,2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,7 +100,21 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,10 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +463,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83EB641-D90F-7C40-9BF6-AF4B07F0846F}">
   <dimension ref="A1:P224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomLeft" activeCell="O181" sqref="O181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1096,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1140,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1184,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1228,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
@@ -1360,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="1">
         <v>0</v>
@@ -1448,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="1">
         <v>0</v>
@@ -1844,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="1">
         <v>0</v>
@@ -1888,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="1">
         <v>0</v>
@@ -1976,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="1">
         <v>0</v>
@@ -2504,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="1">
         <v>0</v>
@@ -2548,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="1">
         <v>0</v>
@@ -2768,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="1">
         <v>0</v>
@@ -3076,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="1">
         <v>0</v>
@@ -3187,12 +3213,30 @@
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
         <v>0</v>
       </c>
       <c r="P63">
@@ -3209,29 +3253,62 @@
       <c r="C64" s="2">
         <v>3</v>
       </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
       <c r="H64">
         <v>0</v>
       </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
       <c r="P64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-      <c r="C65" s="2">
+      <c r="A65" s="3">
+        <v>2</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3">
         <v>4</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -3243,7 +3320,34 @@
       <c r="C66" s="2">
         <v>5</v>
       </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
         <v>0</v>
       </c>
       <c r="P66">
@@ -3260,7 +3364,34 @@
       <c r="C67" s="2">
         <v>6</v>
       </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
         <v>0</v>
       </c>
       <c r="P67">
@@ -3277,7 +3408,34 @@
       <c r="C68" s="2">
         <v>7</v>
       </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
         <v>0</v>
       </c>
       <c r="P68">
@@ -3294,7 +3452,34 @@
       <c r="C69" s="2">
         <v>8</v>
       </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>1</v>
+      </c>
+      <c r="O69" s="1">
         <v>0</v>
       </c>
       <c r="P69">
@@ -3311,7 +3496,34 @@
       <c r="C70" s="2">
         <v>9</v>
       </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
         <v>0</v>
       </c>
       <c r="P70">
@@ -3328,7 +3540,34 @@
       <c r="C71" s="2">
         <v>10</v>
       </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1">
         <v>0</v>
       </c>
       <c r="P71">
@@ -3345,7 +3584,34 @@
       <c r="C72" s="2">
         <v>11</v>
       </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
         <v>0</v>
       </c>
       <c r="P72">
@@ -3362,7 +3628,34 @@
       <c r="C73" s="2">
         <v>12</v>
       </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
         <v>0</v>
       </c>
       <c r="P73">
@@ -3379,7 +3672,34 @@
       <c r="C74" s="2">
         <v>1</v>
       </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1">
         <v>0</v>
       </c>
       <c r="P74">
@@ -3396,7 +3716,34 @@
       <c r="C75" s="2">
         <v>2</v>
       </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>3</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
       <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>1</v>
+      </c>
+      <c r="O75" s="1">
         <v>0</v>
       </c>
       <c r="P75">
@@ -3413,7 +3760,34 @@
       <c r="C76" s="2">
         <v>3</v>
       </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1">
+        <v>1</v>
+      </c>
+      <c r="O76" s="1">
         <v>0</v>
       </c>
       <c r="P76">
@@ -3430,7 +3804,34 @@
       <c r="C77" s="2">
         <v>4</v>
       </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
       <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
         <v>0</v>
       </c>
       <c r="P77">
@@ -3447,7 +3848,34 @@
       <c r="C78" s="2">
         <v>5</v>
       </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
       <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
         <v>0</v>
       </c>
       <c r="P78">
@@ -3464,7 +3892,34 @@
       <c r="C79" s="2">
         <v>6</v>
       </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
       <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
         <v>0</v>
       </c>
       <c r="P79">
@@ -3481,7 +3936,34 @@
       <c r="C80" s="2">
         <v>7</v>
       </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
         <v>0</v>
       </c>
       <c r="P80">
@@ -3498,7 +3980,34 @@
       <c r="C81" s="2">
         <v>8</v>
       </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>4</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
       <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
         <v>0</v>
       </c>
       <c r="P81">
@@ -3515,7 +4024,34 @@
       <c r="C82" s="2">
         <v>9</v>
       </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
       <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
         <v>0</v>
       </c>
       <c r="P82">
@@ -3532,7 +4068,34 @@
       <c r="C83" s="2">
         <v>10</v>
       </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
       <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1">
         <v>0</v>
       </c>
       <c r="P83">
@@ -3549,7 +4112,34 @@
       <c r="C84" s="2">
         <v>11</v>
       </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
       <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1">
+        <v>1</v>
+      </c>
+      <c r="N84" s="1">
+        <v>1</v>
+      </c>
+      <c r="O84" s="1">
         <v>0</v>
       </c>
       <c r="P84">
@@ -3566,7 +4156,34 @@
       <c r="C85" s="2">
         <v>12</v>
       </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
       <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1">
+        <v>1</v>
+      </c>
+      <c r="O85" s="1">
         <v>0</v>
       </c>
       <c r="P85">
@@ -3583,7 +4200,34 @@
       <c r="C86" s="2">
         <v>1</v>
       </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
       <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+      <c r="O86" s="1">
         <v>0</v>
       </c>
       <c r="P86">
@@ -3600,7 +4244,34 @@
       <c r="C87" s="2">
         <v>2</v>
       </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
       <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>1</v>
+      </c>
+      <c r="K87" s="1">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1">
+        <v>0</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
         <v>0</v>
       </c>
       <c r="P87">
@@ -3617,7 +4288,34 @@
       <c r="C88" s="2">
         <v>3</v>
       </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
       <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1">
         <v>0</v>
       </c>
       <c r="P88">
@@ -3634,7 +4332,34 @@
       <c r="C89" s="2">
         <v>4</v>
       </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
       <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1">
+        <v>1</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
         <v>0</v>
       </c>
       <c r="P89">
@@ -3651,7 +4376,34 @@
       <c r="C90" s="2">
         <v>5</v>
       </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1">
         <v>0</v>
       </c>
       <c r="P90">
@@ -3668,7 +4420,34 @@
       <c r="C91" s="2">
         <v>6</v>
       </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>1</v>
+      </c>
+      <c r="L91" s="1">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>1</v>
+      </c>
+      <c r="O91" s="1">
         <v>0</v>
       </c>
       <c r="P91">
@@ -3685,7 +4464,34 @@
       <c r="C92" s="2">
         <v>7</v>
       </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
       <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
         <v>0</v>
       </c>
       <c r="P92">
@@ -3702,7 +4508,34 @@
       <c r="C93" s="2">
         <v>8</v>
       </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
       <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
         <v>0</v>
       </c>
       <c r="P93">
@@ -3719,7 +4552,34 @@
       <c r="C94" s="2">
         <v>9</v>
       </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
       <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1">
         <v>0</v>
       </c>
       <c r="P94">
@@ -3736,7 +4596,34 @@
       <c r="C95" s="2">
         <v>10</v>
       </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1">
+        <v>1</v>
+      </c>
+      <c r="N95" s="1">
+        <v>1</v>
+      </c>
+      <c r="O95" s="1">
         <v>0</v>
       </c>
       <c r="P95">
@@ -3753,7 +4640,34 @@
       <c r="C96" s="2">
         <v>11</v>
       </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1">
         <v>0</v>
       </c>
       <c r="P96">
@@ -3770,7 +4684,34 @@
       <c r="C97" s="2">
         <v>12</v>
       </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>1</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1">
         <v>0</v>
       </c>
       <c r="P97">
@@ -3787,7 +4728,34 @@
       <c r="C98" s="2">
         <v>1</v>
       </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>2</v>
+      </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>1</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1</v>
+      </c>
+      <c r="O98" s="1">
         <v>0</v>
       </c>
       <c r="P98">
@@ -3804,7 +4772,34 @@
       <c r="C99" s="2">
         <v>2</v>
       </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="1">
+        <v>1</v>
+      </c>
+      <c r="O99" s="1">
         <v>0</v>
       </c>
       <c r="P99">
@@ -3821,7 +4816,34 @@
       <c r="C100" s="2">
         <v>3</v>
       </c>
-      <c r="H100">
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0</v>
+      </c>
+      <c r="N100" s="1">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1">
         <v>0</v>
       </c>
       <c r="P100">
@@ -3838,7 +4860,34 @@
       <c r="C101" s="2">
         <v>4</v>
       </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>1</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0</v>
+      </c>
+      <c r="N101" s="1">
+        <v>1</v>
+      </c>
+      <c r="O101" s="1">
         <v>0</v>
       </c>
       <c r="P101">
@@ -3855,21 +4904,48 @@
       <c r="C102" s="2">
         <v>5</v>
       </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
       <c r="H102">
         <v>0</v>
       </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0</v>
+      </c>
       <c r="P102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>2</v>
-      </c>
-      <c r="B103">
+      <c r="A103" s="4">
+        <v>2</v>
+      </c>
+      <c r="B103" s="4">
         <v>6</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="4">
         <v>6</v>
       </c>
       <c r="H103">
@@ -3889,7 +4965,34 @@
       <c r="C104" s="2">
         <v>7</v>
       </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
         <v>0</v>
       </c>
       <c r="P104">
@@ -3906,7 +5009,34 @@
       <c r="C105" s="2">
         <v>8</v>
       </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
       <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
         <v>0</v>
       </c>
       <c r="P105">
@@ -3923,7 +5053,34 @@
       <c r="C106" s="2">
         <v>9</v>
       </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
       <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
         <v>0</v>
       </c>
       <c r="P106">
@@ -3940,7 +5097,34 @@
       <c r="C107" s="2">
         <v>10</v>
       </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" s="5">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
         <v>0</v>
       </c>
       <c r="P107">
@@ -3957,7 +5141,34 @@
       <c r="C108" s="2">
         <v>11</v>
       </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
       <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" s="5">
+        <v>0</v>
+      </c>
+      <c r="N108" s="5">
+        <v>0</v>
+      </c>
+      <c r="O108" s="5">
         <v>0</v>
       </c>
       <c r="P108">
@@ -3974,7 +5185,34 @@
       <c r="C109" s="2">
         <v>12</v>
       </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109" s="5">
+        <v>1</v>
+      </c>
+      <c r="N109" s="5">
+        <v>0</v>
+      </c>
+      <c r="O109" s="5">
         <v>0</v>
       </c>
       <c r="P109">
@@ -3989,9 +5227,36 @@
         <v>1</v>
       </c>
       <c r="C110" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
       </c>
       <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" s="5">
+        <v>0</v>
+      </c>
+      <c r="N110" s="5">
+        <v>0</v>
+      </c>
+      <c r="O110" s="5">
         <v>0</v>
       </c>
       <c r="P110">
@@ -4006,9 +5271,36 @@
         <v>1</v>
       </c>
       <c r="C111" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
       </c>
       <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" s="5">
+        <v>0</v>
+      </c>
+      <c r="N111" s="5">
+        <v>0</v>
+      </c>
+      <c r="O111" s="5">
         <v>0</v>
       </c>
       <c r="P111">
@@ -4023,9 +5315,36 @@
         <v>1</v>
       </c>
       <c r="C112" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112" s="5">
+        <v>0</v>
+      </c>
+      <c r="N112" s="5">
+        <v>0</v>
+      </c>
+      <c r="O112" s="5">
         <v>0</v>
       </c>
       <c r="P112">
@@ -4040,9 +5359,36 @@
         <v>1</v>
       </c>
       <c r="C113" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113" s="5">
+        <v>0</v>
+      </c>
+      <c r="N113" s="5">
+        <v>0</v>
+      </c>
+      <c r="O113" s="5">
         <v>0</v>
       </c>
       <c r="P113">
@@ -4057,9 +5403,36 @@
         <v>1</v>
       </c>
       <c r="C114" s="2">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114" s="5">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" s="5">
         <v>0</v>
       </c>
       <c r="P114">
@@ -4074,9 +5447,36 @@
         <v>1</v>
       </c>
       <c r="C115" s="2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115" s="5">
+        <v>0</v>
+      </c>
+      <c r="N115" s="5">
+        <v>0</v>
+      </c>
+      <c r="O115" s="5">
         <v>0</v>
       </c>
       <c r="P115">
@@ -4091,9 +5491,36 @@
         <v>1</v>
       </c>
       <c r="C116" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
       </c>
       <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116" s="5">
+        <v>0</v>
+      </c>
+      <c r="N116" s="5">
+        <v>1</v>
+      </c>
+      <c r="O116" s="5">
         <v>0</v>
       </c>
       <c r="P116">
@@ -4108,9 +5535,36 @@
         <v>1</v>
       </c>
       <c r="C117" s="2">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
       </c>
       <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117" s="5">
+        <v>0</v>
+      </c>
+      <c r="N117" s="5">
+        <v>0</v>
+      </c>
+      <c r="O117" s="5">
         <v>0</v>
       </c>
       <c r="P117">
@@ -4125,9 +5579,36 @@
         <v>1</v>
       </c>
       <c r="C118" s="2">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
       </c>
       <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118" s="5">
+        <v>0</v>
+      </c>
+      <c r="N118" s="5">
+        <v>1</v>
+      </c>
+      <c r="O118" s="5">
         <v>0</v>
       </c>
       <c r="P118">
@@ -4142,9 +5623,36 @@
         <v>1</v>
       </c>
       <c r="C119" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
       </c>
       <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119" s="5">
+        <v>0</v>
+      </c>
+      <c r="N119" s="5">
+        <v>1</v>
+      </c>
+      <c r="O119" s="5">
         <v>0</v>
       </c>
       <c r="P119">
@@ -4159,9 +5667,36 @@
         <v>1</v>
       </c>
       <c r="C120" s="2">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120" s="5">
+        <v>1</v>
+      </c>
+      <c r="N120" s="5">
+        <v>0</v>
+      </c>
+      <c r="O120" s="5">
         <v>0</v>
       </c>
       <c r="P120">
@@ -4173,12 +5708,39 @@
         <v>3</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121" s="5">
+        <v>0</v>
+      </c>
+      <c r="N121" s="5">
+        <v>0</v>
+      </c>
+      <c r="O121" s="5">
         <v>0</v>
       </c>
       <c r="P121">
@@ -4193,9 +5755,36 @@
         <v>2</v>
       </c>
       <c r="C122" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122" s="5">
+        <v>0</v>
+      </c>
+      <c r="N122" s="5">
+        <v>0</v>
+      </c>
+      <c r="O122" s="5">
         <v>0</v>
       </c>
       <c r="P122">
@@ -4210,9 +5799,36 @@
         <v>2</v>
       </c>
       <c r="C123" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
       </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123" s="5">
+        <v>0</v>
+      </c>
+      <c r="N123" s="5">
+        <v>0</v>
+      </c>
+      <c r="O123" s="5">
         <v>0</v>
       </c>
       <c r="P123">
@@ -4227,9 +5843,36 @@
         <v>2</v>
       </c>
       <c r="C124" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124" s="5">
+        <v>0</v>
+      </c>
+      <c r="N124" s="5">
+        <v>0</v>
+      </c>
+      <c r="O124" s="5">
         <v>0</v>
       </c>
       <c r="P124">
@@ -4244,9 +5887,36 @@
         <v>2</v>
       </c>
       <c r="C125" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
       </c>
       <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125" s="5">
+        <v>1</v>
+      </c>
+      <c r="N125" s="5">
+        <v>0</v>
+      </c>
+      <c r="O125" s="5">
         <v>0</v>
       </c>
       <c r="P125">
@@ -4261,9 +5931,36 @@
         <v>2</v>
       </c>
       <c r="C126" s="2">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
       </c>
       <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126" s="5">
+        <v>0</v>
+      </c>
+      <c r="N126" s="5">
+        <v>1</v>
+      </c>
+      <c r="O126" s="5">
         <v>0</v>
       </c>
       <c r="P126">
@@ -4278,9 +5975,36 @@
         <v>2</v>
       </c>
       <c r="C127" s="2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
       </c>
       <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127" s="5">
+        <v>0</v>
+      </c>
+      <c r="N127" s="5">
+        <v>0</v>
+      </c>
+      <c r="O127" s="5">
         <v>0</v>
       </c>
       <c r="P127">
@@ -4295,9 +6019,36 @@
         <v>2</v>
       </c>
       <c r="C128" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
       </c>
       <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128" s="5">
+        <v>0</v>
+      </c>
+      <c r="N128" s="5">
+        <v>1</v>
+      </c>
+      <c r="O128" s="5">
         <v>0</v>
       </c>
       <c r="P128">
@@ -4312,9 +6063,36 @@
         <v>2</v>
       </c>
       <c r="C129" s="2">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
       </c>
       <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129" s="5">
+        <v>0</v>
+      </c>
+      <c r="N129" s="5">
+        <v>0</v>
+      </c>
+      <c r="O129" s="5">
         <v>0</v>
       </c>
       <c r="P129">
@@ -4329,9 +6107,36 @@
         <v>2</v>
       </c>
       <c r="C130" s="2">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
       </c>
       <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130" s="5">
+        <v>0</v>
+      </c>
+      <c r="N130" s="5">
+        <v>0</v>
+      </c>
+      <c r="O130" s="5">
         <v>0</v>
       </c>
       <c r="P130">
@@ -4346,9 +6151,36 @@
         <v>2</v>
       </c>
       <c r="C131" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
       </c>
       <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131" s="5">
+        <v>0</v>
+      </c>
+      <c r="N131" s="5">
+        <v>0</v>
+      </c>
+      <c r="O131" s="5">
         <v>0</v>
       </c>
       <c r="P131">
@@ -4363,9 +6195,36 @@
         <v>2</v>
       </c>
       <c r="C132" s="2">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
       </c>
       <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132" s="5">
+        <v>0</v>
+      </c>
+      <c r="N132" s="5">
+        <v>0</v>
+      </c>
+      <c r="O132" s="5">
         <v>0</v>
       </c>
       <c r="P132">
@@ -4377,12 +6236,39 @@
         <v>3</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133" s="5">
+        <v>0</v>
+      </c>
+      <c r="N133" s="5">
+        <v>0</v>
+      </c>
+      <c r="O133" s="5">
         <v>0</v>
       </c>
       <c r="P133">
@@ -4397,9 +6283,36 @@
         <v>3</v>
       </c>
       <c r="C134" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134" s="5">
+        <v>0</v>
+      </c>
+      <c r="N134" s="5">
+        <v>1</v>
+      </c>
+      <c r="O134" s="5">
         <v>0</v>
       </c>
       <c r="P134">
@@ -4414,9 +6327,36 @@
         <v>3</v>
       </c>
       <c r="C135" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135" s="5">
+        <v>1</v>
+      </c>
+      <c r="N135" s="5">
+        <v>0</v>
+      </c>
+      <c r="O135" s="5">
         <v>0</v>
       </c>
       <c r="P135">
@@ -4431,9 +6371,36 @@
         <v>3</v>
       </c>
       <c r="C136" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
       </c>
       <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136" s="5">
+        <v>0</v>
+      </c>
+      <c r="N136" s="5">
+        <v>0</v>
+      </c>
+      <c r="O136" s="5">
         <v>0</v>
       </c>
       <c r="P136">
@@ -4448,9 +6415,36 @@
         <v>3</v>
       </c>
       <c r="C137" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
       </c>
       <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137" s="5">
+        <v>0</v>
+      </c>
+      <c r="N137" s="5">
+        <v>1</v>
+      </c>
+      <c r="O137" s="5">
         <v>0</v>
       </c>
       <c r="P137">
@@ -4465,9 +6459,36 @@
         <v>3</v>
       </c>
       <c r="C138" s="2">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
       </c>
       <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138" s="5">
+        <v>0</v>
+      </c>
+      <c r="N138" s="5">
+        <v>1</v>
+      </c>
+      <c r="O138" s="5">
         <v>0</v>
       </c>
       <c r="P138">
@@ -4482,9 +6503,36 @@
         <v>3</v>
       </c>
       <c r="C139" s="2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
       </c>
       <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139" s="5">
+        <v>0</v>
+      </c>
+      <c r="N139" s="5">
+        <v>0</v>
+      </c>
+      <c r="O139" s="5">
         <v>0</v>
       </c>
       <c r="P139">
@@ -4499,9 +6547,36 @@
         <v>3</v>
       </c>
       <c r="C140" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140" s="5">
+        <v>1</v>
+      </c>
+      <c r="N140" s="5">
+        <v>1</v>
+      </c>
+      <c r="O140" s="5">
         <v>0</v>
       </c>
       <c r="P140">
@@ -4516,9 +6591,36 @@
         <v>3</v>
       </c>
       <c r="C141" s="2">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141" s="5">
+        <v>0</v>
+      </c>
+      <c r="N141" s="5">
+        <v>0</v>
+      </c>
+      <c r="O141" s="5">
         <v>0</v>
       </c>
       <c r="P141">
@@ -4533,9 +6635,36 @@
         <v>3</v>
       </c>
       <c r="C142" s="2">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
       </c>
       <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142" s="5">
+        <v>0</v>
+      </c>
+      <c r="N142" s="5">
+        <v>1</v>
+      </c>
+      <c r="O142" s="5">
         <v>0</v>
       </c>
       <c r="P142">
@@ -4550,24 +6679,51 @@
         <v>3</v>
       </c>
       <c r="C143" s="2">
+        <v>10</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143" s="5">
+        <v>0</v>
+      </c>
+      <c r="N143" s="5">
+        <v>0</v>
+      </c>
+      <c r="O143" s="5">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>3</v>
+      </c>
+      <c r="B144" s="4">
+        <v>3</v>
+      </c>
+      <c r="C144" s="4">
         <v>11</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>3</v>
-      </c>
-      <c r="B144">
-        <v>3</v>
-      </c>
-      <c r="C144" s="2">
-        <v>12</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -4581,12 +6737,39 @@
         <v>3</v>
       </c>
       <c r="B145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145" s="5">
+        <v>0</v>
+      </c>
+      <c r="N145" s="5">
+        <v>0</v>
+      </c>
+      <c r="O145" s="5">
         <v>0</v>
       </c>
       <c r="P145">
@@ -4601,9 +6784,36 @@
         <v>4</v>
       </c>
       <c r="C146" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
       </c>
       <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146" s="5">
+        <v>0</v>
+      </c>
+      <c r="N146" s="5">
+        <v>1</v>
+      </c>
+      <c r="O146" s="5">
         <v>0</v>
       </c>
       <c r="P146">
@@ -4618,9 +6828,36 @@
         <v>4</v>
       </c>
       <c r="C147" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
       </c>
       <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147" s="5">
+        <v>0</v>
+      </c>
+      <c r="N147" s="5">
+        <v>1</v>
+      </c>
+      <c r="O147" s="5">
         <v>0</v>
       </c>
       <c r="P147">
@@ -4635,9 +6872,36 @@
         <v>4</v>
       </c>
       <c r="C148" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
       </c>
       <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148" s="5">
+        <v>0</v>
+      </c>
+      <c r="N148" s="5">
+        <v>0</v>
+      </c>
+      <c r="O148" s="5">
         <v>0</v>
       </c>
       <c r="P148">
@@ -4652,9 +6916,36 @@
         <v>4</v>
       </c>
       <c r="C149" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
       </c>
       <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149" s="5">
+        <v>1</v>
+      </c>
+      <c r="N149" s="5">
+        <v>0</v>
+      </c>
+      <c r="O149" s="5">
         <v>0</v>
       </c>
       <c r="P149">
@@ -4669,9 +6960,36 @@
         <v>4</v>
       </c>
       <c r="C150" s="2">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
       </c>
       <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150" s="5">
+        <v>0</v>
+      </c>
+      <c r="N150" s="5">
+        <v>0</v>
+      </c>
+      <c r="O150" s="5">
         <v>0</v>
       </c>
       <c r="P150">
@@ -4686,9 +7004,36 @@
         <v>4</v>
       </c>
       <c r="C151" s="2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
       </c>
       <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151" s="5">
+        <v>0</v>
+      </c>
+      <c r="N151" s="5">
+        <v>1</v>
+      </c>
+      <c r="O151" s="5">
         <v>0</v>
       </c>
       <c r="P151">
@@ -4703,9 +7048,36 @@
         <v>4</v>
       </c>
       <c r="C152" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152" s="5">
+        <v>0</v>
+      </c>
+      <c r="N152" s="5">
+        <v>0</v>
+      </c>
+      <c r="O152" s="5">
         <v>0</v>
       </c>
       <c r="P152">
@@ -4720,9 +7092,36 @@
         <v>4</v>
       </c>
       <c r="C153" s="2">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153" s="5">
+        <v>0</v>
+      </c>
+      <c r="N153" s="5">
+        <v>0</v>
+      </c>
+      <c r="O153" s="5">
         <v>0</v>
       </c>
       <c r="P153">
@@ -4737,9 +7136,36 @@
         <v>4</v>
       </c>
       <c r="C154" s="2">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
       </c>
       <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154" s="5">
+        <v>0</v>
+      </c>
+      <c r="N154" s="5">
+        <v>0</v>
+      </c>
+      <c r="O154" s="5">
         <v>0</v>
       </c>
       <c r="P154">
@@ -4754,9 +7180,36 @@
         <v>4</v>
       </c>
       <c r="C155" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
       </c>
       <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155" s="5">
+        <v>0</v>
+      </c>
+      <c r="N155" s="5">
+        <v>0</v>
+      </c>
+      <c r="O155" s="5">
         <v>0</v>
       </c>
       <c r="P155">
@@ -4771,9 +7224,36 @@
         <v>4</v>
       </c>
       <c r="C156" s="2">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
       </c>
       <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156" s="5">
+        <v>0</v>
+      </c>
+      <c r="N156" s="5">
+        <v>0</v>
+      </c>
+      <c r="O156" s="5">
         <v>0</v>
       </c>
       <c r="P156">
@@ -4785,12 +7265,39 @@
         <v>3</v>
       </c>
       <c r="B157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C157" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157" s="5">
+        <v>0</v>
+      </c>
+      <c r="N157" s="5">
+        <v>0</v>
+      </c>
+      <c r="O157" s="5">
         <v>0</v>
       </c>
       <c r="P157">
@@ -4805,9 +7312,36 @@
         <v>5</v>
       </c>
       <c r="C158" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
       </c>
       <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158" s="5">
+        <v>0</v>
+      </c>
+      <c r="N158" s="5">
+        <v>1</v>
+      </c>
+      <c r="O158" s="5">
         <v>0</v>
       </c>
       <c r="P158">
@@ -4822,9 +7356,36 @@
         <v>5</v>
       </c>
       <c r="C159" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
       </c>
       <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159" s="5">
+        <v>1</v>
+      </c>
+      <c r="N159" s="5">
+        <v>1</v>
+      </c>
+      <c r="O159" s="5">
         <v>0</v>
       </c>
       <c r="P159">
@@ -4839,9 +7400,36 @@
         <v>5</v>
       </c>
       <c r="C160" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
       </c>
       <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160" s="5">
+        <v>0</v>
+      </c>
+      <c r="N160" s="5">
+        <v>0</v>
+      </c>
+      <c r="O160" s="5">
         <v>0</v>
       </c>
       <c r="P160">
@@ -4856,10 +7444,37 @@
         <v>5</v>
       </c>
       <c r="C161" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161" s="5">
+        <v>0</v>
+      </c>
+      <c r="N161" s="5">
+        <v>0</v>
+      </c>
+      <c r="O161" s="5">
+        <v>1</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -4873,9 +7488,36 @@
         <v>5</v>
       </c>
       <c r="C162" s="2">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
       </c>
       <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162" s="5">
+        <v>0</v>
+      </c>
+      <c r="N162" s="5">
+        <v>0</v>
+      </c>
+      <c r="O162" s="5">
         <v>0</v>
       </c>
       <c r="P162">
@@ -4890,9 +7532,36 @@
         <v>5</v>
       </c>
       <c r="C163" s="2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
       </c>
       <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163" s="5">
+        <v>0</v>
+      </c>
+      <c r="N163" s="5">
+        <v>0</v>
+      </c>
+      <c r="O163" s="5">
         <v>0</v>
       </c>
       <c r="P163">
@@ -4907,9 +7576,36 @@
         <v>5</v>
       </c>
       <c r="C164" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
       </c>
       <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164" s="5">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164" s="5">
         <v>0</v>
       </c>
       <c r="P164">
@@ -4924,9 +7620,36 @@
         <v>5</v>
       </c>
       <c r="C165" s="2">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
       </c>
       <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165" s="5">
+        <v>0</v>
+      </c>
+      <c r="N165" s="5">
+        <v>0</v>
+      </c>
+      <c r="O165" s="5">
         <v>0</v>
       </c>
       <c r="P165">
@@ -4941,9 +7664,36 @@
         <v>5</v>
       </c>
       <c r="C166" s="2">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
       </c>
       <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166" s="5">
+        <v>0</v>
+      </c>
+      <c r="N166" s="5">
+        <v>1</v>
+      </c>
+      <c r="O166" s="5">
         <v>0</v>
       </c>
       <c r="P166">
@@ -4958,9 +7708,36 @@
         <v>5</v>
       </c>
       <c r="C167" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
       </c>
       <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167" s="5">
+        <v>0</v>
+      </c>
+      <c r="N167" s="5">
+        <v>0</v>
+      </c>
+      <c r="O167" s="5">
         <v>0</v>
       </c>
       <c r="P167">
@@ -4975,9 +7752,36 @@
         <v>5</v>
       </c>
       <c r="C168" s="2">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>17</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
       </c>
       <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168" s="5">
+        <v>0</v>
+      </c>
+      <c r="N168" s="5">
+        <v>0</v>
+      </c>
+      <c r="O168" s="5">
         <v>0</v>
       </c>
       <c r="P168">
@@ -4989,12 +7793,39 @@
         <v>3</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
       </c>
       <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169" s="5">
+        <v>0</v>
+      </c>
+      <c r="N169" s="5">
+        <v>0</v>
+      </c>
+      <c r="O169" s="5">
         <v>0</v>
       </c>
       <c r="P169">
@@ -5009,9 +7840,36 @@
         <v>6</v>
       </c>
       <c r="C170" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>3</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
       </c>
       <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170" s="5">
+        <v>0</v>
+      </c>
+      <c r="N170" s="5">
+        <v>0</v>
+      </c>
+      <c r="O170" s="5">
         <v>0</v>
       </c>
       <c r="P170">
@@ -5026,9 +7884,36 @@
         <v>6</v>
       </c>
       <c r="C171" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
       </c>
       <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171" s="5">
+        <v>0</v>
+      </c>
+      <c r="N171" s="5">
+        <v>1</v>
+      </c>
+      <c r="O171" s="5">
         <v>0</v>
       </c>
       <c r="P171">
@@ -5043,9 +7928,36 @@
         <v>6</v>
       </c>
       <c r="C172" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
       </c>
       <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172" s="5">
+        <v>0</v>
+      </c>
+      <c r="N172" s="5">
+        <v>0</v>
+      </c>
+      <c r="O172" s="5">
         <v>0</v>
       </c>
       <c r="P172">
@@ -5060,9 +7972,36 @@
         <v>6</v>
       </c>
       <c r="C173" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
       </c>
       <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173" s="5">
+        <v>0</v>
+      </c>
+      <c r="N173" s="5">
+        <v>1</v>
+      </c>
+      <c r="O173" s="5">
         <v>0</v>
       </c>
       <c r="P173">
@@ -5077,9 +8016,36 @@
         <v>6</v>
       </c>
       <c r="C174" s="2">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
       </c>
       <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174" s="5">
+        <v>0</v>
+      </c>
+      <c r="N174" s="5">
+        <v>1</v>
+      </c>
+      <c r="O174" s="5">
         <v>0</v>
       </c>
       <c r="P174">
@@ -5094,9 +8060,36 @@
         <v>6</v>
       </c>
       <c r="C175" s="2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
       </c>
       <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175" s="5">
+        <v>0</v>
+      </c>
+      <c r="N175" s="5">
+        <v>0</v>
+      </c>
+      <c r="O175" s="5">
         <v>0</v>
       </c>
       <c r="P175">
@@ -5111,9 +8104,36 @@
         <v>6</v>
       </c>
       <c r="C176" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
       </c>
       <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176" s="5">
+        <v>0</v>
+      </c>
+      <c r="N176" s="5">
+        <v>1</v>
+      </c>
+      <c r="O176" s="5">
         <v>0</v>
       </c>
       <c r="P176">
@@ -5128,9 +8148,36 @@
         <v>6</v>
       </c>
       <c r="C177" s="2">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
       </c>
       <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177" s="5">
+        <v>0</v>
+      </c>
+      <c r="N177" s="5">
+        <v>0</v>
+      </c>
+      <c r="O177" s="5">
         <v>0</v>
       </c>
       <c r="P177">
@@ -5145,9 +8192,36 @@
         <v>6</v>
       </c>
       <c r="C178" s="2">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
       </c>
       <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178" s="5">
+        <v>0</v>
+      </c>
+      <c r="N178" s="5">
+        <v>0</v>
+      </c>
+      <c r="O178" s="5">
         <v>0</v>
       </c>
       <c r="P178">
@@ -5162,9 +8236,36 @@
         <v>6</v>
       </c>
       <c r="C179" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
       </c>
       <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179" s="5">
+        <v>0</v>
+      </c>
+      <c r="N179" s="5">
+        <v>0</v>
+      </c>
+      <c r="O179" s="5">
         <v>0</v>
       </c>
       <c r="P179">
@@ -5179,17 +8280,80 @@
         <v>6</v>
       </c>
       <c r="C180" s="2">
+        <v>11</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180" s="5">
+        <v>1</v>
+      </c>
+      <c r="N180" s="5">
+        <v>1</v>
+      </c>
+      <c r="O180" s="5">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <v>6</v>
+      </c>
+      <c r="C181" s="2">
         <v>12</v>
       </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-      <c r="P180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
       <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181" s="5">
+        <v>0</v>
+      </c>
+      <c r="N181" s="5">
+        <v>0</v>
+      </c>
+      <c r="O181" s="5">
         <v>0</v>
       </c>
       <c r="P181">
@@ -5503,5 +8667,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/RABackup/12Sets.xlsx
+++ b/RABackup/12Sets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsingh/Desktop/CALLAB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsingh/Desktop/CALLAB/GitHub/iteratedlearning/RABackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE20F1-C73B-6745-8690-BCE007517A8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C56EEB-E42A-9A4F-BFD7-E6BABBA98645}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="0" windowWidth="18020" windowHeight="18000" xr2:uid="{6679CA10-1F33-DE46-962D-9E20D9BBDDEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14980" windowHeight="18000" xr2:uid="{6679CA10-1F33-DE46-962D-9E20D9BBDDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Chain</t>
   </si>
@@ -85,12 +85,15 @@
   <si>
     <t xml:space="preserve"> 1.3,2</t>
   </si>
+  <si>
+    <t>1,2.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,6 +122,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,13 +151,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,12 +473,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83EB641-D90F-7C40-9BF6-AF4B07F0846F}">
-  <dimension ref="A1:P224"/>
+  <dimension ref="A1:P396"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O181" sqref="O181"/>
+      <selection pane="bottomLeft" activeCell="N325" sqref="N325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8361,307 +8373,6826 @@
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
       <c r="H182">
         <v>0</v>
       </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182" s="5">
+        <v>0</v>
+      </c>
+      <c r="N182" s="5">
+        <v>1</v>
+      </c>
+      <c r="O182" s="5">
+        <v>0</v>
+      </c>
       <c r="P182">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" s="2">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
       <c r="H183">
         <v>0</v>
       </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183" s="5">
+        <v>0</v>
+      </c>
+      <c r="N183" s="5">
+        <v>0</v>
+      </c>
+      <c r="O183" s="5">
+        <v>0</v>
+      </c>
       <c r="P183">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2">
+        <v>3</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
       <c r="H184">
         <v>0</v>
       </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184" s="5">
+        <v>0</v>
+      </c>
+      <c r="N184" s="5">
+        <v>0</v>
+      </c>
+      <c r="O184" s="5">
+        <v>0</v>
+      </c>
       <c r="P184">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2">
+        <v>4</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>2</v>
+      </c>
       <c r="H185">
         <v>0</v>
       </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185" s="5">
+        <v>0</v>
+      </c>
+      <c r="N185" s="5">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
       <c r="P185">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2">
+        <v>5</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
       <c r="H186">
         <v>0</v>
       </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186" s="5">
+        <v>0</v>
+      </c>
+      <c r="N186" s="5">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
       <c r="P186">
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" s="2">
+        <v>6</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
       <c r="H187">
         <v>0</v>
       </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187" s="5">
+        <v>0</v>
+      </c>
+      <c r="N187" s="5">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
       <c r="P187">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" s="2">
+        <v>7</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
       <c r="H188">
         <v>0</v>
       </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188" s="5">
+        <v>1</v>
+      </c>
+      <c r="N188" s="5">
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
       <c r="P188">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H189">
-        <v>0</v>
-      </c>
-      <c r="P189">
-        <v>0</v>
-      </c>
+      <c r="A189" s="3">
+        <v>4</v>
+      </c>
+      <c r="B189" s="3">
+        <v>1</v>
+      </c>
+      <c r="C189" s="3">
+        <v>8</v>
+      </c>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H190">
-        <v>0</v>
-      </c>
-      <c r="P190">
-        <v>0</v>
-      </c>
+      <c r="A190" s="3">
+        <v>4</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1</v>
+      </c>
+      <c r="C190" s="3">
+        <v>9</v>
+      </c>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" s="2">
+        <v>10</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
       <c r="H191">
         <v>0</v>
       </c>
-      <c r="P191">
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191" s="5">
+        <v>0</v>
+      </c>
+      <c r="N191" s="5">
+        <v>1</v>
+      </c>
+      <c r="O191" s="5">
+        <v>0</v>
+      </c>
+      <c r="P191" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2">
+        <v>11</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
       <c r="H192">
         <v>0</v>
       </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192" s="5">
+        <v>0</v>
+      </c>
+      <c r="N192" s="5">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
       <c r="P192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" s="2">
+        <v>12</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
       <c r="H193">
         <v>0</v>
       </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193" s="5">
+        <v>0</v>
+      </c>
+      <c r="N193" s="5">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
       <c r="P193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>4</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194" s="2">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
       <c r="H194">
         <v>0</v>
       </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194" s="5">
+        <v>1</v>
+      </c>
+      <c r="N194" s="5">
+        <v>1</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
       <c r="P194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>4</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195" s="2">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
       <c r="H195">
         <v>0</v>
       </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195" s="5">
+        <v>0</v>
+      </c>
+      <c r="N195" s="5">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
       <c r="P195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>4</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196" s="2">
+        <v>3</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
       <c r="H196">
         <v>0</v>
       </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196" s="5">
+        <v>0</v>
+      </c>
+      <c r="N196" s="5">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
       <c r="P196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197" s="2">
+        <v>4</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
       <c r="H197">
         <v>0</v>
       </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197" s="5">
+        <v>0</v>
+      </c>
+      <c r="N197" s="5">
+        <v>1</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
       <c r="P197">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198" s="2">
+        <v>5</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
       <c r="H198">
         <v>0</v>
       </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198" s="5">
+        <v>1</v>
+      </c>
+      <c r="N198" s="5">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
       <c r="P198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199" s="2">
+        <v>6</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
       <c r="H199">
         <v>0</v>
       </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199" s="5">
+        <v>1</v>
+      </c>
+      <c r="N199" s="5">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
       <c r="P199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200" s="2">
+        <v>7</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
       <c r="H200">
         <v>0</v>
       </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200" s="5">
+        <v>0</v>
+      </c>
+      <c r="N200" s="5">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
       <c r="P200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201" s="2">
+        <v>8</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
       <c r="H201">
         <v>0</v>
       </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201" s="5">
+        <v>0</v>
+      </c>
+      <c r="N201" s="5">
+        <v>1</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
       <c r="P201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202" s="2">
+        <v>9</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
       <c r="H202">
         <v>0</v>
       </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202" s="5">
+        <v>0</v>
+      </c>
+      <c r="N202" s="5">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
       <c r="P202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203" s="2">
+        <v>10</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
       <c r="H203">
         <v>0</v>
       </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203" s="5">
+        <v>0</v>
+      </c>
+      <c r="N203" s="5">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
       <c r="P203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204" s="2">
+        <v>11</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
       <c r="H204">
         <v>0</v>
       </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204" s="5">
+        <v>0</v>
+      </c>
+      <c r="N204" s="5">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
       <c r="P204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205" s="2">
+        <v>12</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
       <c r="H205">
         <v>0</v>
       </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205" s="5">
+        <v>0</v>
+      </c>
+      <c r="N205" s="5">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
       <c r="P205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206" s="2">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
       <c r="H206">
         <v>0</v>
       </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206" s="5">
+        <v>0</v>
+      </c>
+      <c r="N206" s="5">
+        <v>1</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
       <c r="P206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207" s="2">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
       <c r="H207">
         <v>0</v>
       </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207" s="5">
+        <v>0</v>
+      </c>
+      <c r="N207" s="5">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
       <c r="P207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208" s="2">
+        <v>3</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
       <c r="H208">
         <v>0</v>
       </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208" s="5">
+        <v>0</v>
+      </c>
+      <c r="N208" s="5">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
       <c r="P208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209" s="2">
+        <v>4</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
       <c r="H209">
         <v>0</v>
       </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209" s="5">
+        <v>0</v>
+      </c>
+      <c r="N209" s="5">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
       <c r="P209">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210" s="2">
+        <v>5</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
       <c r="H210">
         <v>0</v>
       </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210" s="5">
+        <v>0</v>
+      </c>
+      <c r="N210" s="5">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
       <c r="P210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211" s="2">
+        <v>6</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
       <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211" s="5">
+        <v>0</v>
+      </c>
+      <c r="N211" s="5">
+        <v>0</v>
+      </c>
+      <c r="O211">
         <v>0</v>
       </c>
       <c r="P211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="8:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212" s="2">
+        <v>7</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
       <c r="H212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212" s="5">
+        <v>0</v>
+      </c>
+      <c r="N212" s="5">
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213" s="2">
+        <v>8</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
       <c r="H213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213" s="5">
+        <v>1</v>
+      </c>
+      <c r="N213" s="5">
+        <v>1</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>4</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214" s="2">
+        <v>9</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
       <c r="H214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214" s="5">
+        <v>0</v>
+      </c>
+      <c r="N214" s="5">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>4</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215" s="2">
+        <v>10</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
       <c r="H215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215" s="5">
+        <v>0</v>
+      </c>
+      <c r="N215" s="5">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>4</v>
+      </c>
+      <c r="B216" s="4">
+        <v>3</v>
+      </c>
+      <c r="C216" s="4">
+        <v>11</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
       <c r="H216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216" s="5">
+        <v>0</v>
+      </c>
+      <c r="N216" s="5">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>3</v>
+      </c>
+      <c r="C217" s="2">
+        <v>12</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
       <c r="H217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217" s="5">
+        <v>0</v>
+      </c>
+      <c r="N217" s="5">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>4</v>
+      </c>
+      <c r="B218">
+        <v>4</v>
+      </c>
+      <c r="C218" s="2">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
       <c r="H218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218" s="5">
+        <v>0</v>
+      </c>
+      <c r="N218" s="5">
+        <v>1</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>4</v>
+      </c>
+      <c r="B219">
+        <v>4</v>
+      </c>
+      <c r="C219" s="2">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
       <c r="H219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219" s="5">
+        <v>0</v>
+      </c>
+      <c r="N219" s="5">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>4</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+      <c r="C220" s="2">
+        <v>3</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
       <c r="H220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220" s="5">
+        <v>0</v>
+      </c>
+      <c r="N220" s="5">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>4</v>
+      </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
+      <c r="C221" s="2">
+        <v>4</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1.2</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
       <c r="H221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221" s="5">
+        <v>0</v>
+      </c>
+      <c r="N221" s="5">
+        <v>1</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>4</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222" s="2">
+        <v>5</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
       <c r="H222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222" s="5">
+        <v>0</v>
+      </c>
+      <c r="M222" s="5">
+        <v>0</v>
+      </c>
+      <c r="N222" s="5">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>4</v>
+      </c>
+      <c r="B223">
+        <v>4</v>
+      </c>
+      <c r="C223" s="2">
+        <v>6</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
       <c r="H223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223" s="5">
+        <v>0</v>
+      </c>
+      <c r="M223" s="5">
+        <v>0</v>
+      </c>
+      <c r="N223" s="5">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>4</v>
+      </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
+      <c r="C224" s="2">
+        <v>7</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
       <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224" s="5">
+        <v>0</v>
+      </c>
+      <c r="M224" s="5">
+        <v>0</v>
+      </c>
+      <c r="N224" s="5">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>4</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225" s="2">
+        <v>8</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225" s="5">
+        <v>1</v>
+      </c>
+      <c r="M225" s="5">
+        <v>0</v>
+      </c>
+      <c r="N225" s="5">
+        <v>1</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>4</v>
+      </c>
+      <c r="B226">
+        <v>4</v>
+      </c>
+      <c r="C226" s="2">
+        <v>9</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226" s="5">
+        <v>1</v>
+      </c>
+      <c r="M226" s="5">
+        <v>0</v>
+      </c>
+      <c r="N226" s="5">
+        <v>1</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>4</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+      <c r="C227" s="2">
+        <v>10</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>4</v>
+      </c>
+      <c r="B228">
+        <v>4</v>
+      </c>
+      <c r="C228" s="2">
+        <v>11</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>4</v>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229" s="2">
+        <v>12</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>4</v>
+      </c>
+      <c r="B230">
+        <v>5</v>
+      </c>
+      <c r="C230" s="2">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>4</v>
+      </c>
+      <c r="B231">
+        <v>5</v>
+      </c>
+      <c r="C231" s="2">
+        <v>2</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>4</v>
+      </c>
+      <c r="B232">
+        <v>5</v>
+      </c>
+      <c r="C232" s="2">
+        <v>3</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>4</v>
+      </c>
+      <c r="B233">
+        <v>5</v>
+      </c>
+      <c r="C233" s="2">
+        <v>4</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>4</v>
+      </c>
+      <c r="B234">
+        <v>5</v>
+      </c>
+      <c r="C234" s="2">
+        <v>5</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>4</v>
+      </c>
+      <c r="B235">
+        <v>5</v>
+      </c>
+      <c r="C235" s="2">
+        <v>6</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>1</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>4</v>
+      </c>
+      <c r="B236">
+        <v>5</v>
+      </c>
+      <c r="C236" s="2">
+        <v>7</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>4</v>
+      </c>
+      <c r="B237">
+        <v>5</v>
+      </c>
+      <c r="C237" s="2">
+        <v>8</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>4</v>
+      </c>
+      <c r="B238">
+        <v>5</v>
+      </c>
+      <c r="C238" s="2">
+        <v>9</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>4</v>
+      </c>
+      <c r="B239">
+        <v>5</v>
+      </c>
+      <c r="C239" s="2">
+        <v>10</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>2</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>4</v>
+      </c>
+      <c r="B240">
+        <v>5</v>
+      </c>
+      <c r="C240" s="2">
+        <v>11</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>4</v>
+      </c>
+      <c r="B241">
+        <v>5</v>
+      </c>
+      <c r="C241" s="2">
+        <v>12</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>4</v>
+      </c>
+      <c r="B242">
+        <v>6</v>
+      </c>
+      <c r="C242" s="2">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>1</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>4</v>
+      </c>
+      <c r="B243">
+        <v>6</v>
+      </c>
+      <c r="C243" s="2">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>4</v>
+      </c>
+      <c r="B244">
+        <v>6</v>
+      </c>
+      <c r="C244" s="2">
+        <v>3</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>4</v>
+      </c>
+      <c r="B245">
+        <v>6</v>
+      </c>
+      <c r="C245" s="2">
+        <v>4</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>4</v>
+      </c>
+      <c r="B246">
+        <v>6</v>
+      </c>
+      <c r="C246" s="2">
+        <v>5</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>4</v>
+      </c>
+      <c r="B247">
+        <v>6</v>
+      </c>
+      <c r="C247" s="2">
+        <v>6</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>1</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>4</v>
+      </c>
+      <c r="B248">
+        <v>6</v>
+      </c>
+      <c r="C248" s="2">
+        <v>7</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>2</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>4</v>
+      </c>
+      <c r="B249">
+        <v>6</v>
+      </c>
+      <c r="C249" s="2">
+        <v>8</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>4</v>
+      </c>
+      <c r="B250">
+        <v>6</v>
+      </c>
+      <c r="C250" s="2">
+        <v>9</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>4</v>
+      </c>
+      <c r="B251">
+        <v>6</v>
+      </c>
+      <c r="C251" s="2">
+        <v>10</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>4</v>
+      </c>
+      <c r="B252">
+        <v>6</v>
+      </c>
+      <c r="C252" s="2">
+        <v>11</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>4</v>
+      </c>
+      <c r="B253">
+        <v>6</v>
+      </c>
+      <c r="C253" s="2">
+        <v>12</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>5</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" s="2">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>5</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" s="2">
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>5</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" s="2">
+        <v>3</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
+      <c r="P256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>5</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" s="2">
+        <v>4</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>5</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258" s="2">
+        <v>5</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+      <c r="N258">
+        <v>1</v>
+      </c>
+      <c r="O258">
+        <v>0</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>5</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" s="2">
+        <v>6</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259">
+        <v>1</v>
+      </c>
+      <c r="O259">
+        <v>0</v>
+      </c>
+      <c r="P259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>5</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260" s="2">
+        <v>7</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1</v>
+      </c>
+      <c r="F260" s="1">
+        <v>0</v>
+      </c>
+      <c r="G260" s="1">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="O260">
+        <v>0</v>
+      </c>
+      <c r="P260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>5</v>
+      </c>
+      <c r="B261" s="1">
+        <v>1</v>
+      </c>
+      <c r="C261" s="1">
+        <v>8</v>
+      </c>
+      <c r="E261" s="1">
+        <v>1</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0</v>
+      </c>
+      <c r="G261" s="1">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>5</v>
+      </c>
+      <c r="B262" s="1">
+        <v>1</v>
+      </c>
+      <c r="C262" s="1">
+        <v>9</v>
+      </c>
+      <c r="E262" s="1">
+        <v>1</v>
+      </c>
+      <c r="F262" s="1">
+        <v>0</v>
+      </c>
+      <c r="G262" s="1">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>5</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" s="2">
+        <v>10</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
+      <c r="F263" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G263" s="1">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>5</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264" s="2">
+        <v>11</v>
+      </c>
+      <c r="E264" s="1">
+        <v>1</v>
+      </c>
+      <c r="F264" s="1">
+        <v>0</v>
+      </c>
+      <c r="G264" s="1">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+      <c r="N264">
+        <v>1</v>
+      </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>5</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" s="2">
+        <v>12</v>
+      </c>
+      <c r="E265" s="1">
+        <v>1</v>
+      </c>
+      <c r="F265" s="1">
+        <v>0</v>
+      </c>
+      <c r="G265" s="1">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+      <c r="O265">
+        <v>0</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>5</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+      <c r="C266" s="2">
+        <v>1</v>
+      </c>
+      <c r="E266" s="1">
+        <v>1</v>
+      </c>
+      <c r="F266" s="1">
+        <v>3</v>
+      </c>
+      <c r="G266" s="1">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+      <c r="O266">
+        <v>0</v>
+      </c>
+      <c r="P266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>5</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267" s="2">
+        <v>2</v>
+      </c>
+      <c r="E267" s="1">
+        <v>0</v>
+      </c>
+      <c r="F267" s="1">
+        <v>0</v>
+      </c>
+      <c r="G267" s="1">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>5</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268" s="2">
+        <v>3</v>
+      </c>
+      <c r="E268" s="1">
+        <v>1</v>
+      </c>
+      <c r="F268" s="1">
+        <v>1</v>
+      </c>
+      <c r="G268" s="1">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>5</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269" s="2">
+        <v>4</v>
+      </c>
+      <c r="E269" s="1">
+        <v>0</v>
+      </c>
+      <c r="F269" s="1">
+        <v>1</v>
+      </c>
+      <c r="G269" s="1">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>5</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270" s="2">
+        <v>5</v>
+      </c>
+      <c r="E270" s="1">
+        <v>1</v>
+      </c>
+      <c r="F270" s="1">
+        <v>1</v>
+      </c>
+      <c r="G270" s="1">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
+      <c r="P270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>5</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271" s="2">
+        <v>6</v>
+      </c>
+      <c r="E271" s="1">
+        <v>1</v>
+      </c>
+      <c r="F271" s="1">
+        <v>3</v>
+      </c>
+      <c r="G271" s="1">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>5</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+      <c r="C272" s="2">
+        <v>7</v>
+      </c>
+      <c r="E272" s="1">
+        <v>1</v>
+      </c>
+      <c r="F272" s="1">
+        <v>0</v>
+      </c>
+      <c r="G272" s="1">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>1</v>
+      </c>
+      <c r="O272">
+        <v>0</v>
+      </c>
+      <c r="P272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>5</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273" s="2">
+        <v>8</v>
+      </c>
+      <c r="E273" s="1">
+        <v>1</v>
+      </c>
+      <c r="F273" s="1">
+        <v>0</v>
+      </c>
+      <c r="G273" s="1">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273">
+        <v>0</v>
+      </c>
+      <c r="P273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>5</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274" s="2">
+        <v>9</v>
+      </c>
+      <c r="E274" s="1">
+        <v>0</v>
+      </c>
+      <c r="F274" s="1">
+        <v>2</v>
+      </c>
+      <c r="G274" s="1">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+      <c r="O274">
+        <v>0</v>
+      </c>
+      <c r="P274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>5</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275" s="2">
+        <v>10</v>
+      </c>
+      <c r="E275" s="1">
+        <v>0</v>
+      </c>
+      <c r="F275" s="1">
+        <v>3</v>
+      </c>
+      <c r="G275" s="1">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+      <c r="O275">
+        <v>0</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>5</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276" s="2">
+        <v>11</v>
+      </c>
+      <c r="E276" s="1">
+        <v>1</v>
+      </c>
+      <c r="F276" s="1">
+        <v>1</v>
+      </c>
+      <c r="G276" s="1">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276">
+        <v>0</v>
+      </c>
+      <c r="P276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>5</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277" s="2">
+        <v>12</v>
+      </c>
+      <c r="E277" s="1">
+        <v>0</v>
+      </c>
+      <c r="F277" s="1">
+        <v>3</v>
+      </c>
+      <c r="G277" s="1">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+      <c r="O277">
+        <v>0</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>5</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278" s="2">
+        <v>1</v>
+      </c>
+      <c r="E278" s="1">
+        <v>1</v>
+      </c>
+      <c r="F278" s="1">
+        <v>3</v>
+      </c>
+      <c r="G278" s="1">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>1</v>
+      </c>
+      <c r="O278">
+        <v>0</v>
+      </c>
+      <c r="P278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>5</v>
+      </c>
+      <c r="B279">
+        <v>3</v>
+      </c>
+      <c r="C279" s="2">
+        <v>2</v>
+      </c>
+      <c r="E279" s="1">
+        <v>0</v>
+      </c>
+      <c r="F279" s="1">
+        <v>0</v>
+      </c>
+      <c r="G279" s="1">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+      <c r="O279">
+        <v>0</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>5</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280" s="2">
+        <v>3</v>
+      </c>
+      <c r="E280" s="1">
+        <v>1</v>
+      </c>
+      <c r="F280" s="1">
+        <v>1</v>
+      </c>
+      <c r="G280" s="1">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+      <c r="O280">
+        <v>0</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>5</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281" s="2">
+        <v>4</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281" s="1">
+        <v>1</v>
+      </c>
+      <c r="G281" s="1">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+      <c r="O281">
+        <v>0</v>
+      </c>
+      <c r="P281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>5</v>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282" s="2">
+        <v>5</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282" s="1">
+        <v>2</v>
+      </c>
+      <c r="G282" s="1">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+      <c r="O282">
+        <v>0</v>
+      </c>
+      <c r="P282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>5</v>
+      </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283" s="2">
+        <v>6</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283" s="1">
+        <v>1</v>
+      </c>
+      <c r="G283" s="1">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283">
+        <v>0</v>
+      </c>
+      <c r="P283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>5</v>
+      </c>
+      <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284" s="2">
+        <v>7</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" s="1">
+        <v>0</v>
+      </c>
+      <c r="G284" s="1">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+      <c r="O284">
+        <v>0</v>
+      </c>
+      <c r="P284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>5</v>
+      </c>
+      <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285" s="2">
+        <v>8</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285" s="1">
+        <v>0</v>
+      </c>
+      <c r="G285" s="1">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285">
+        <v>0</v>
+      </c>
+      <c r="P285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>5</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286" s="2">
+        <v>9</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286" s="1">
+        <v>0</v>
+      </c>
+      <c r="G286" s="1">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>1</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+      <c r="O286">
+        <v>0</v>
+      </c>
+      <c r="P286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>5</v>
+      </c>
+      <c r="B287">
+        <v>3</v>
+      </c>
+      <c r="C287" s="2">
+        <v>10</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287" s="1">
+        <v>0</v>
+      </c>
+      <c r="G287" s="1">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+      <c r="O287">
+        <v>0</v>
+      </c>
+      <c r="P287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>5</v>
+      </c>
+      <c r="B288" s="4">
+        <v>3</v>
+      </c>
+      <c r="C288" s="4">
+        <v>11</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288" s="1">
+        <v>1</v>
+      </c>
+      <c r="G288" s="1">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>0</v>
+      </c>
+      <c r="O288">
+        <v>0</v>
+      </c>
+      <c r="P288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>5</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289" s="2">
+        <v>12</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289" s="1">
+        <v>0</v>
+      </c>
+      <c r="G289" s="1">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+      <c r="O289">
+        <v>0</v>
+      </c>
+      <c r="P289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>5</v>
+      </c>
+      <c r="B290">
+        <v>4</v>
+      </c>
+      <c r="C290" s="2">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290" s="1">
+        <v>2</v>
+      </c>
+      <c r="G290" s="1">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+      <c r="O290">
+        <v>0</v>
+      </c>
+      <c r="P290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>5</v>
+      </c>
+      <c r="B291">
+        <v>4</v>
+      </c>
+      <c r="C291" s="2">
+        <v>2</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291" s="1">
+        <v>0</v>
+      </c>
+      <c r="G291" s="1">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+      <c r="O291">
+        <v>0</v>
+      </c>
+      <c r="P291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>5</v>
+      </c>
+      <c r="B292">
+        <v>4</v>
+      </c>
+      <c r="C292" s="2">
+        <v>3</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292" s="1">
+        <v>2</v>
+      </c>
+      <c r="G292" s="1">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+      <c r="O292">
+        <v>0</v>
+      </c>
+      <c r="P292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>5</v>
+      </c>
+      <c r="B293">
+        <v>4</v>
+      </c>
+      <c r="C293" s="2">
+        <v>4</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293" s="1">
+        <v>2</v>
+      </c>
+      <c r="G293" s="1">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>1</v>
+      </c>
+      <c r="O293">
+        <v>0</v>
+      </c>
+      <c r="P293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>5</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+      <c r="C294" s="2">
+        <v>5</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294" s="1">
+        <v>2</v>
+      </c>
+      <c r="G294" s="1">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>1</v>
+      </c>
+      <c r="O294">
+        <v>0</v>
+      </c>
+      <c r="P294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>5</v>
+      </c>
+      <c r="B295">
+        <v>4</v>
+      </c>
+      <c r="C295" s="2">
+        <v>6</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295" s="1">
+        <v>0</v>
+      </c>
+      <c r="G295" s="1">
+        <v>2</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295">
+        <v>0</v>
+      </c>
+      <c r="O295">
+        <v>0</v>
+      </c>
+      <c r="P295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>5</v>
+      </c>
+      <c r="B296">
+        <v>4</v>
+      </c>
+      <c r="C296" s="2">
+        <v>7</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296" s="1">
+        <v>0</v>
+      </c>
+      <c r="G296" s="1">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="N296">
+        <v>1</v>
+      </c>
+      <c r="O296">
+        <v>0</v>
+      </c>
+      <c r="P296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>5</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+      <c r="C297" s="2">
+        <v>8</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297" s="1">
+        <v>0</v>
+      </c>
+      <c r="G297" s="1">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+      <c r="O297">
+        <v>0</v>
+      </c>
+      <c r="P297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>5</v>
+      </c>
+      <c r="B298">
+        <v>4</v>
+      </c>
+      <c r="C298" s="2">
+        <v>9</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298" s="1">
+        <v>2</v>
+      </c>
+      <c r="G298" s="1">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+      <c r="O298">
+        <v>0</v>
+      </c>
+      <c r="P298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>5</v>
+      </c>
+      <c r="B299">
+        <v>4</v>
+      </c>
+      <c r="C299" s="2">
+        <v>10</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299" s="1">
+        <v>0</v>
+      </c>
+      <c r="G299" s="1">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+      <c r="O299">
+        <v>0</v>
+      </c>
+      <c r="P299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>5</v>
+      </c>
+      <c r="B300">
+        <v>4</v>
+      </c>
+      <c r="C300" s="2">
+        <v>11</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300" s="1">
+        <v>2</v>
+      </c>
+      <c r="G300" s="1">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+      <c r="O300">
+        <v>0</v>
+      </c>
+      <c r="P300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>5</v>
+      </c>
+      <c r="B301">
+        <v>4</v>
+      </c>
+      <c r="C301" s="2">
+        <v>12</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301" s="1">
+        <v>1</v>
+      </c>
+      <c r="G301" s="1">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+      <c r="O301">
+        <v>0</v>
+      </c>
+      <c r="P301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>5</v>
+      </c>
+      <c r="B302">
+        <v>5</v>
+      </c>
+      <c r="C302" s="2">
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302" s="1">
+        <v>2</v>
+      </c>
+      <c r="G302" s="1">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+      <c r="O302">
+        <v>0</v>
+      </c>
+      <c r="P302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>5</v>
+      </c>
+      <c r="B303">
+        <v>5</v>
+      </c>
+      <c r="C303" s="2">
+        <v>2</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303" s="1">
+        <v>0</v>
+      </c>
+      <c r="G303" s="1">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+      <c r="O303">
+        <v>0</v>
+      </c>
+      <c r="P303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>5</v>
+      </c>
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304" s="2">
+        <v>3</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304" s="1">
+        <v>3</v>
+      </c>
+      <c r="G304" s="1">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+      <c r="O304">
+        <v>0</v>
+      </c>
+      <c r="P304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>5</v>
+      </c>
+      <c r="B305">
+        <v>5</v>
+      </c>
+      <c r="C305" s="2">
+        <v>4</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305" s="1">
+        <v>1</v>
+      </c>
+      <c r="G305" s="1">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>0</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+      <c r="O305">
+        <v>0</v>
+      </c>
+      <c r="P305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>5</v>
+      </c>
+      <c r="B306">
+        <v>5</v>
+      </c>
+      <c r="C306" s="2">
+        <v>5</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306" s="1">
+        <v>3</v>
+      </c>
+      <c r="G306" s="1">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+      <c r="O306">
+        <v>0</v>
+      </c>
+      <c r="P306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>5</v>
+      </c>
+      <c r="B307">
+        <v>5</v>
+      </c>
+      <c r="C307" s="2">
+        <v>6</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G307" s="1">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307" s="6">
+        <v>0</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+      <c r="O307">
+        <v>0</v>
+      </c>
+      <c r="P307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>5</v>
+      </c>
+      <c r="B308">
+        <v>5</v>
+      </c>
+      <c r="C308" s="2">
+        <v>7</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308" s="1">
+        <v>1</v>
+      </c>
+      <c r="G308" s="1">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>1</v>
+      </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+      <c r="N308">
+        <v>1</v>
+      </c>
+      <c r="O308">
+        <v>0</v>
+      </c>
+      <c r="P308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>5</v>
+      </c>
+      <c r="B309">
+        <v>5</v>
+      </c>
+      <c r="C309" s="2">
+        <v>8</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309" s="1">
+        <v>0</v>
+      </c>
+      <c r="G309" s="1">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+      <c r="L309">
+        <v>0</v>
+      </c>
+      <c r="M309">
+        <v>1</v>
+      </c>
+      <c r="N309">
+        <v>1</v>
+      </c>
+      <c r="O309">
+        <v>0</v>
+      </c>
+      <c r="P309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>5</v>
+      </c>
+      <c r="B310">
+        <v>5</v>
+      </c>
+      <c r="C310" s="2">
+        <v>9</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310" s="1">
+        <v>1</v>
+      </c>
+      <c r="G310" s="1">
+        <v>1</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+      <c r="L310">
+        <v>0</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+      <c r="O310">
+        <v>0</v>
+      </c>
+      <c r="P310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>5</v>
+      </c>
+      <c r="B311">
+        <v>5</v>
+      </c>
+      <c r="C311" s="2">
+        <v>10</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311" s="1">
+        <v>0</v>
+      </c>
+      <c r="G311" s="1">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+      <c r="O311">
+        <v>0</v>
+      </c>
+      <c r="P311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>5</v>
+      </c>
+      <c r="B312">
+        <v>5</v>
+      </c>
+      <c r="C312" s="2">
+        <v>11</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312" s="1">
+        <v>1</v>
+      </c>
+      <c r="G312" s="1">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312">
+        <v>0</v>
+      </c>
+      <c r="O312">
+        <v>0</v>
+      </c>
+      <c r="P312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>5</v>
+      </c>
+      <c r="B313">
+        <v>5</v>
+      </c>
+      <c r="C313" s="2">
+        <v>12</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313" s="1">
+        <v>1</v>
+      </c>
+      <c r="G313" s="1">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>0</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>0</v>
+      </c>
+      <c r="O313">
+        <v>0</v>
+      </c>
+      <c r="P313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>5</v>
+      </c>
+      <c r="B314">
+        <v>6</v>
+      </c>
+      <c r="C314" s="2">
+        <v>1</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314" s="1">
+        <v>0</v>
+      </c>
+      <c r="G314" s="1">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>1</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314">
+        <v>1</v>
+      </c>
+      <c r="O314">
+        <v>0</v>
+      </c>
+      <c r="P314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>5</v>
+      </c>
+      <c r="B315">
+        <v>6</v>
+      </c>
+      <c r="C315" s="2">
+        <v>2</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315" s="1">
+        <v>0</v>
+      </c>
+      <c r="G315" s="1">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+      <c r="L315">
+        <v>0</v>
+      </c>
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315">
+        <v>0</v>
+      </c>
+      <c r="O315">
+        <v>0</v>
+      </c>
+      <c r="P315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>5</v>
+      </c>
+      <c r="B316">
+        <v>6</v>
+      </c>
+      <c r="C316" s="2">
+        <v>3</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316" s="1">
+        <v>0</v>
+      </c>
+      <c r="G316" s="1">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>1</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+      <c r="M316">
+        <v>1</v>
+      </c>
+      <c r="N316">
+        <v>1</v>
+      </c>
+      <c r="O316">
+        <v>0</v>
+      </c>
+      <c r="P316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>5</v>
+      </c>
+      <c r="B317">
+        <v>6</v>
+      </c>
+      <c r="C317" s="2">
+        <v>4</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317" s="1">
+        <v>0</v>
+      </c>
+      <c r="G317" s="1">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+      <c r="L317">
+        <v>0</v>
+      </c>
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317">
+        <v>0</v>
+      </c>
+      <c r="O317">
+        <v>0</v>
+      </c>
+      <c r="P317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>5</v>
+      </c>
+      <c r="B318">
+        <v>6</v>
+      </c>
+      <c r="C318" s="2">
+        <v>5</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="F318" s="1">
+        <v>1</v>
+      </c>
+      <c r="G318" s="1">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>0</v>
+      </c>
+      <c r="M318">
+        <v>0</v>
+      </c>
+      <c r="N318">
+        <v>0</v>
+      </c>
+      <c r="O318">
+        <v>0</v>
+      </c>
+      <c r="P318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>5</v>
+      </c>
+      <c r="B319">
+        <v>6</v>
+      </c>
+      <c r="C319" s="2">
+        <v>6</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319" s="1">
+        <v>1</v>
+      </c>
+      <c r="G319" s="1">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>1</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+      <c r="M319">
+        <v>1</v>
+      </c>
+      <c r="N319">
+        <v>1</v>
+      </c>
+      <c r="O319">
+        <v>0</v>
+      </c>
+      <c r="P319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>5</v>
+      </c>
+      <c r="B320">
+        <v>6</v>
+      </c>
+      <c r="C320" s="2">
+        <v>7</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320" s="1">
+        <v>0</v>
+      </c>
+      <c r="G320" s="1">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320">
+        <v>1</v>
+      </c>
+      <c r="L320">
+        <v>0</v>
+      </c>
+      <c r="M320">
+        <v>1</v>
+      </c>
+      <c r="N320">
+        <v>1</v>
+      </c>
+      <c r="O320">
+        <v>0</v>
+      </c>
+      <c r="P320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>5</v>
+      </c>
+      <c r="B321">
+        <v>6</v>
+      </c>
+      <c r="C321" s="2">
+        <v>8</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321" s="1">
+        <v>1</v>
+      </c>
+      <c r="G321" s="1">
+        <v>1</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>1</v>
+      </c>
+      <c r="L321">
+        <v>0</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>1</v>
+      </c>
+      <c r="O321">
+        <v>0</v>
+      </c>
+      <c r="P321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>5</v>
+      </c>
+      <c r="B322">
+        <v>6</v>
+      </c>
+      <c r="C322" s="2">
+        <v>9</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322" s="1">
+        <v>1</v>
+      </c>
+      <c r="G322" s="1">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>1</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322">
+        <v>0</v>
+      </c>
+      <c r="O322">
+        <v>0</v>
+      </c>
+      <c r="P322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>5</v>
+      </c>
+      <c r="B323">
+        <v>6</v>
+      </c>
+      <c r="C323" s="2">
+        <v>10</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323" s="1">
+        <v>0</v>
+      </c>
+      <c r="G323" s="1">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+      <c r="O323">
+        <v>0</v>
+      </c>
+      <c r="P323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>5</v>
+      </c>
+      <c r="B324">
+        <v>6</v>
+      </c>
+      <c r="C324" s="2">
+        <v>11</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324" s="1">
+        <v>0</v>
+      </c>
+      <c r="G324" s="1">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+      <c r="O324">
+        <v>0</v>
+      </c>
+      <c r="P324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>5</v>
+      </c>
+      <c r="B325">
+        <v>6</v>
+      </c>
+      <c r="C325" s="2">
+        <v>12</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+      <c r="F325" s="1">
+        <v>1</v>
+      </c>
+      <c r="G325" s="1">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>1</v>
+      </c>
+      <c r="L325">
+        <v>0</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>1</v>
+      </c>
+      <c r="O325">
+        <v>0</v>
+      </c>
+      <c r="P325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="O326">
+        <v>0</v>
+      </c>
+      <c r="P326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="O327">
+        <v>0</v>
+      </c>
+      <c r="P327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H328">
+        <v>0</v>
+      </c>
+      <c r="O328">
+        <v>0</v>
+      </c>
+      <c r="P328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="O329">
+        <v>0</v>
+      </c>
+      <c r="P329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="O330">
+        <v>0</v>
+      </c>
+      <c r="P330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="O331">
+        <v>0</v>
+      </c>
+      <c r="P331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="O332">
+        <v>0</v>
+      </c>
+      <c r="P332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="O333">
+        <v>0</v>
+      </c>
+      <c r="P333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="O334">
+        <v>0</v>
+      </c>
+      <c r="P334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="O335">
+        <v>0</v>
+      </c>
+      <c r="P335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="O336">
+        <v>0</v>
+      </c>
+      <c r="P336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="O337">
+        <v>0</v>
+      </c>
+      <c r="P337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="O338">
+        <v>0</v>
+      </c>
+      <c r="P338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H339">
+        <v>0</v>
+      </c>
+      <c r="O339">
+        <v>0</v>
+      </c>
+      <c r="P339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="O340">
+        <v>0</v>
+      </c>
+      <c r="P340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H341">
+        <v>0</v>
+      </c>
+      <c r="O341">
+        <v>0</v>
+      </c>
+      <c r="P341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="O342">
+        <v>0</v>
+      </c>
+      <c r="P342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="O343">
+        <v>0</v>
+      </c>
+      <c r="P343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="O344">
+        <v>0</v>
+      </c>
+      <c r="P344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="O345">
+        <v>0</v>
+      </c>
+      <c r="P345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H346">
+        <v>0</v>
+      </c>
+      <c r="O346">
+        <v>0</v>
+      </c>
+      <c r="P346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="O347">
+        <v>0</v>
+      </c>
+      <c r="P347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H348">
+        <v>0</v>
+      </c>
+      <c r="O348">
+        <v>0</v>
+      </c>
+      <c r="P348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="O349">
+        <v>0</v>
+      </c>
+      <c r="P349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="O350">
+        <v>0</v>
+      </c>
+      <c r="P350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="O351">
+        <v>0</v>
+      </c>
+      <c r="P351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="O352">
+        <v>0</v>
+      </c>
+      <c r="P352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="O353">
+        <v>0</v>
+      </c>
+      <c r="P353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H354">
+        <v>0</v>
+      </c>
+      <c r="O354">
+        <v>0</v>
+      </c>
+      <c r="P354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="O355">
+        <v>0</v>
+      </c>
+      <c r="P355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="O356">
+        <v>0</v>
+      </c>
+      <c r="P356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="O357">
+        <v>0</v>
+      </c>
+      <c r="P357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="O358">
+        <v>0</v>
+      </c>
+      <c r="P358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="P359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="P360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="P361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="P362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="P363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="P364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="P365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="P366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="P367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="8:16" x14ac:dyDescent="0.2">
+      <c r="P368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P396">
         <v>0</v>
       </c>
     </row>

--- a/RABackup/12Sets.xlsx
+++ b/RABackup/12Sets.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsingh/Desktop/CALLAB/GitHub/iteratedlearning/RABackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643804BF-8AA6-6A42-AC26-BE428CD66894}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CE4748-761C-CE4C-A780-3FA9DA375AD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18860" windowHeight="18000" xr2:uid="{6679CA10-1F33-DE46-962D-9E20D9BBDDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Chain</t>
   </si>
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -159,6 +159,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,12 +475,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83EB641-D90F-7C40-9BF6-AF4B07F0846F}">
-  <dimension ref="A1:P731"/>
+  <dimension ref="A1:P794"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A666" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A757" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G695" sqref="G695"/>
+      <selection pane="bottomLeft" activeCell="B791" sqref="B791:C793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30555,6 +30557,9 @@
       <c r="H694">
         <v>0</v>
       </c>
+      <c r="J694">
+        <v>0</v>
+      </c>
       <c r="K694">
         <v>1</v>
       </c>
@@ -30716,7 +30721,31 @@
       <c r="C698" s="2">
         <v>1</v>
       </c>
+      <c r="E698" s="5">
+        <v>1</v>
+      </c>
+      <c r="F698" s="5">
+        <v>1</v>
+      </c>
+      <c r="G698" s="5">
+        <v>0</v>
+      </c>
       <c r="H698">
+        <v>0</v>
+      </c>
+      <c r="J698">
+        <v>0</v>
+      </c>
+      <c r="K698">
+        <v>0</v>
+      </c>
+      <c r="L698">
+        <v>0</v>
+      </c>
+      <c r="M698">
+        <v>0</v>
+      </c>
+      <c r="N698">
         <v>0</v>
       </c>
       <c r="O698">
@@ -30736,7 +30765,31 @@
       <c r="C699" s="2">
         <v>2</v>
       </c>
+      <c r="E699" s="5">
+        <v>1</v>
+      </c>
+      <c r="F699" s="5">
+        <v>0</v>
+      </c>
+      <c r="G699" s="5">
+        <v>0</v>
+      </c>
       <c r="H699">
+        <v>0</v>
+      </c>
+      <c r="J699">
+        <v>0</v>
+      </c>
+      <c r="K699">
+        <v>0</v>
+      </c>
+      <c r="L699">
+        <v>1</v>
+      </c>
+      <c r="M699">
+        <v>1</v>
+      </c>
+      <c r="N699">
         <v>0</v>
       </c>
       <c r="O699">
@@ -30756,7 +30809,31 @@
       <c r="C700" s="2">
         <v>3</v>
       </c>
+      <c r="E700" s="5">
+        <v>1</v>
+      </c>
+      <c r="F700" s="5">
+        <v>1</v>
+      </c>
+      <c r="G700" s="5">
+        <v>0</v>
+      </c>
       <c r="H700">
+        <v>0</v>
+      </c>
+      <c r="J700">
+        <v>0</v>
+      </c>
+      <c r="K700">
+        <v>0</v>
+      </c>
+      <c r="L700">
+        <v>1</v>
+      </c>
+      <c r="M700">
+        <v>0</v>
+      </c>
+      <c r="N700">
         <v>0</v>
       </c>
       <c r="O700">
@@ -30776,8 +30853,32 @@
       <c r="C701" s="2">
         <v>4</v>
       </c>
+      <c r="E701" s="5">
+        <v>1</v>
+      </c>
+      <c r="F701" s="5">
+        <v>0</v>
+      </c>
+      <c r="G701" s="5">
+        <v>0</v>
+      </c>
       <c r="H701">
         <v>0</v>
+      </c>
+      <c r="J701">
+        <v>0</v>
+      </c>
+      <c r="K701">
+        <v>1</v>
+      </c>
+      <c r="L701">
+        <v>0</v>
+      </c>
+      <c r="M701">
+        <v>0</v>
+      </c>
+      <c r="N701">
+        <v>1</v>
       </c>
       <c r="O701">
         <v>0</v>
@@ -30796,7 +30897,31 @@
       <c r="C702" s="2">
         <v>5</v>
       </c>
+      <c r="E702" s="5">
+        <v>1</v>
+      </c>
+      <c r="F702" s="5">
+        <v>2</v>
+      </c>
+      <c r="G702" s="5">
+        <v>0</v>
+      </c>
       <c r="H702">
+        <v>0</v>
+      </c>
+      <c r="J702">
+        <v>0</v>
+      </c>
+      <c r="K702">
+        <v>1</v>
+      </c>
+      <c r="L702">
+        <v>0</v>
+      </c>
+      <c r="M702">
+        <v>0</v>
+      </c>
+      <c r="N702">
         <v>0</v>
       </c>
       <c r="O702">
@@ -30816,7 +30941,31 @@
       <c r="C703" s="2">
         <v>6</v>
       </c>
+      <c r="E703" s="5">
+        <v>0</v>
+      </c>
+      <c r="F703" s="5">
+        <v>2</v>
+      </c>
+      <c r="G703" s="5">
+        <v>0</v>
+      </c>
       <c r="H703">
+        <v>0</v>
+      </c>
+      <c r="J703">
+        <v>0</v>
+      </c>
+      <c r="K703">
+        <v>1</v>
+      </c>
+      <c r="L703">
+        <v>0</v>
+      </c>
+      <c r="M703">
+        <v>1</v>
+      </c>
+      <c r="N703">
         <v>0</v>
       </c>
       <c r="O703">
@@ -30836,7 +30985,31 @@
       <c r="C704" s="2">
         <v>7</v>
       </c>
+      <c r="E704" s="5">
+        <v>0</v>
+      </c>
+      <c r="F704" s="5">
+        <v>0</v>
+      </c>
+      <c r="G704" s="5">
+        <v>1</v>
+      </c>
       <c r="H704">
+        <v>0</v>
+      </c>
+      <c r="J704">
+        <v>0</v>
+      </c>
+      <c r="K704">
+        <v>0</v>
+      </c>
+      <c r="L704">
+        <v>0</v>
+      </c>
+      <c r="M704">
+        <v>0</v>
+      </c>
+      <c r="N704">
         <v>0</v>
       </c>
       <c r="O704">
@@ -30856,7 +31029,31 @@
       <c r="C705" s="2">
         <v>8</v>
       </c>
+      <c r="E705" s="5">
+        <v>1</v>
+      </c>
+      <c r="F705" s="5">
+        <v>0</v>
+      </c>
+      <c r="G705" s="7">
+        <v>0</v>
+      </c>
       <c r="H705">
+        <v>0</v>
+      </c>
+      <c r="J705">
+        <v>0</v>
+      </c>
+      <c r="K705">
+        <v>0</v>
+      </c>
+      <c r="L705">
+        <v>0</v>
+      </c>
+      <c r="M705">
+        <v>1</v>
+      </c>
+      <c r="N705">
         <v>0</v>
       </c>
       <c r="O705">
@@ -30876,7 +31073,31 @@
       <c r="C706" s="2">
         <v>9</v>
       </c>
+      <c r="E706" s="5">
+        <v>0</v>
+      </c>
+      <c r="F706" s="7">
+        <v>0</v>
+      </c>
+      <c r="G706" s="7">
+        <v>0</v>
+      </c>
       <c r="H706">
+        <v>0</v>
+      </c>
+      <c r="J706">
+        <v>0</v>
+      </c>
+      <c r="K706">
+        <v>0</v>
+      </c>
+      <c r="L706">
+        <v>0</v>
+      </c>
+      <c r="M706">
+        <v>0</v>
+      </c>
+      <c r="N706">
         <v>0</v>
       </c>
       <c r="O706">
@@ -30896,8 +31117,32 @@
       <c r="C707" s="2">
         <v>10</v>
       </c>
+      <c r="E707" s="5">
+        <v>0</v>
+      </c>
+      <c r="F707" s="7">
+        <v>1</v>
+      </c>
+      <c r="G707" s="5">
+        <v>0</v>
+      </c>
       <c r="H707">
         <v>0</v>
+      </c>
+      <c r="J707">
+        <v>0</v>
+      </c>
+      <c r="K707">
+        <v>1</v>
+      </c>
+      <c r="L707">
+        <v>0</v>
+      </c>
+      <c r="M707">
+        <v>0</v>
+      </c>
+      <c r="N707">
+        <v>1</v>
       </c>
       <c r="O707">
         <v>0</v>
@@ -31004,7 +31249,31 @@
       <c r="C710" s="2">
         <v>1</v>
       </c>
+      <c r="E710" s="5">
+        <v>0</v>
+      </c>
+      <c r="F710" s="5">
+        <v>1</v>
+      </c>
+      <c r="G710" s="5">
+        <v>1</v>
+      </c>
       <c r="H710">
+        <v>0</v>
+      </c>
+      <c r="J710">
+        <v>0</v>
+      </c>
+      <c r="K710">
+        <v>0</v>
+      </c>
+      <c r="L710">
+        <v>0</v>
+      </c>
+      <c r="M710">
+        <v>0</v>
+      </c>
+      <c r="N710">
         <v>0</v>
       </c>
       <c r="O710">
@@ -31024,7 +31293,31 @@
       <c r="C711" s="2">
         <v>2</v>
       </c>
+      <c r="E711" s="5">
+        <v>0</v>
+      </c>
+      <c r="F711" s="5">
+        <v>1</v>
+      </c>
+      <c r="G711" s="5">
+        <v>1</v>
+      </c>
       <c r="H711">
+        <v>0</v>
+      </c>
+      <c r="J711">
+        <v>0</v>
+      </c>
+      <c r="K711">
+        <v>0</v>
+      </c>
+      <c r="L711">
+        <v>0</v>
+      </c>
+      <c r="M711">
+        <v>0</v>
+      </c>
+      <c r="N711">
         <v>0</v>
       </c>
       <c r="O711">
@@ -31044,7 +31337,31 @@
       <c r="C712" s="2">
         <v>3</v>
       </c>
+      <c r="E712" s="5">
+        <v>1</v>
+      </c>
+      <c r="F712" s="5">
+        <v>2</v>
+      </c>
+      <c r="G712" s="5">
+        <v>0</v>
+      </c>
       <c r="H712">
+        <v>0</v>
+      </c>
+      <c r="J712">
+        <v>0</v>
+      </c>
+      <c r="K712">
+        <v>1</v>
+      </c>
+      <c r="L712">
+        <v>0</v>
+      </c>
+      <c r="M712">
+        <v>0</v>
+      </c>
+      <c r="N712">
         <v>0</v>
       </c>
       <c r="O712">
@@ -31064,7 +31381,31 @@
       <c r="C713" s="2">
         <v>4</v>
       </c>
+      <c r="E713" s="5">
+        <v>0</v>
+      </c>
+      <c r="F713" s="5">
+        <v>0</v>
+      </c>
+      <c r="G713" s="5">
+        <v>0</v>
+      </c>
       <c r="H713">
+        <v>0</v>
+      </c>
+      <c r="J713">
+        <v>0</v>
+      </c>
+      <c r="K713">
+        <v>0</v>
+      </c>
+      <c r="L713">
+        <v>0</v>
+      </c>
+      <c r="M713">
+        <v>0</v>
+      </c>
+      <c r="N713">
         <v>0</v>
       </c>
       <c r="O713">
@@ -31084,8 +31425,32 @@
       <c r="C714" s="2">
         <v>5</v>
       </c>
+      <c r="E714" s="5">
+        <v>1</v>
+      </c>
+      <c r="F714" s="5">
+        <v>0</v>
+      </c>
+      <c r="G714" s="5">
+        <v>1</v>
+      </c>
       <c r="H714">
         <v>0</v>
+      </c>
+      <c r="J714">
+        <v>0</v>
+      </c>
+      <c r="K714">
+        <v>1</v>
+      </c>
+      <c r="L714">
+        <v>0</v>
+      </c>
+      <c r="M714">
+        <v>0</v>
+      </c>
+      <c r="N714">
+        <v>1</v>
       </c>
       <c r="O714">
         <v>0</v>
@@ -31104,7 +31469,31 @@
       <c r="C715" s="2">
         <v>6</v>
       </c>
+      <c r="E715" s="5">
+        <v>1</v>
+      </c>
+      <c r="F715" s="5">
+        <v>0</v>
+      </c>
+      <c r="G715" s="5">
+        <v>0</v>
+      </c>
       <c r="H715">
+        <v>0</v>
+      </c>
+      <c r="J715">
+        <v>0</v>
+      </c>
+      <c r="K715">
+        <v>0</v>
+      </c>
+      <c r="L715">
+        <v>0</v>
+      </c>
+      <c r="M715">
+        <v>0</v>
+      </c>
+      <c r="N715">
         <v>0</v>
       </c>
       <c r="O715">
@@ -31124,7 +31513,31 @@
       <c r="C716" s="2">
         <v>7</v>
       </c>
+      <c r="E716" s="5">
+        <v>0</v>
+      </c>
+      <c r="F716" s="5">
+        <v>0</v>
+      </c>
+      <c r="G716" s="5">
+        <v>1</v>
+      </c>
       <c r="H716">
+        <v>0</v>
+      </c>
+      <c r="J716">
+        <v>0</v>
+      </c>
+      <c r="K716">
+        <v>0</v>
+      </c>
+      <c r="L716">
+        <v>0</v>
+      </c>
+      <c r="M716">
+        <v>0</v>
+      </c>
+      <c r="N716">
         <v>0</v>
       </c>
       <c r="O716">
@@ -31144,7 +31557,31 @@
       <c r="C717" s="2">
         <v>8</v>
       </c>
+      <c r="E717" s="5">
+        <v>0</v>
+      </c>
+      <c r="F717" s="5">
+        <v>0</v>
+      </c>
+      <c r="G717" s="5">
+        <v>0</v>
+      </c>
       <c r="H717">
+        <v>0</v>
+      </c>
+      <c r="J717">
+        <v>0</v>
+      </c>
+      <c r="K717">
+        <v>0</v>
+      </c>
+      <c r="L717">
+        <v>0</v>
+      </c>
+      <c r="M717">
+        <v>0</v>
+      </c>
+      <c r="N717">
         <v>0</v>
       </c>
       <c r="O717">
@@ -31164,7 +31601,31 @@
       <c r="C718" s="2">
         <v>9</v>
       </c>
+      <c r="E718" s="5">
+        <v>0</v>
+      </c>
+      <c r="F718" s="5">
+        <v>0</v>
+      </c>
+      <c r="G718" s="5">
+        <v>0</v>
+      </c>
       <c r="H718">
+        <v>0</v>
+      </c>
+      <c r="J718">
+        <v>0</v>
+      </c>
+      <c r="K718">
+        <v>0</v>
+      </c>
+      <c r="L718">
+        <v>0</v>
+      </c>
+      <c r="M718">
+        <v>0</v>
+      </c>
+      <c r="N718">
         <v>0</v>
       </c>
       <c r="O718">
@@ -31184,7 +31645,31 @@
       <c r="C719" s="2">
         <v>10</v>
       </c>
+      <c r="E719" s="5">
+        <v>1</v>
+      </c>
+      <c r="F719" s="5">
+        <v>0</v>
+      </c>
+      <c r="G719" s="5">
+        <v>2</v>
+      </c>
       <c r="H719">
+        <v>0</v>
+      </c>
+      <c r="J719">
+        <v>0</v>
+      </c>
+      <c r="K719">
+        <v>0</v>
+      </c>
+      <c r="L719">
+        <v>0</v>
+      </c>
+      <c r="M719">
+        <v>1</v>
+      </c>
+      <c r="N719">
         <v>0</v>
       </c>
       <c r="O719">
@@ -31283,9 +31768,42 @@
       </c>
     </row>
     <row r="722" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>12</v>
+      </c>
+      <c r="B722">
+        <v>1</v>
+      </c>
+      <c r="C722" s="2">
+        <v>1</v>
+      </c>
+      <c r="E722" s="5">
+        <v>0</v>
+      </c>
+      <c r="F722" s="5">
+        <v>3</v>
+      </c>
+      <c r="G722" s="5">
+        <v>1</v>
+      </c>
       <c r="H722">
         <v>0</v>
       </c>
+      <c r="J722">
+        <v>0</v>
+      </c>
+      <c r="K722">
+        <v>0</v>
+      </c>
+      <c r="L722">
+        <v>0</v>
+      </c>
+      <c r="M722">
+        <v>0</v>
+      </c>
+      <c r="N722">
+        <v>0</v>
+      </c>
       <c r="O722">
         <v>0</v>
       </c>
@@ -31294,9 +31812,42 @@
       </c>
     </row>
     <row r="723" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>12</v>
+      </c>
+      <c r="B723" s="1">
+        <v>1</v>
+      </c>
+      <c r="C723" s="1">
+        <v>2</v>
+      </c>
+      <c r="E723" s="5">
+        <v>0</v>
+      </c>
+      <c r="F723" s="5">
+        <v>0</v>
+      </c>
+      <c r="G723" s="5">
+        <v>0</v>
+      </c>
       <c r="H723">
         <v>0</v>
       </c>
+      <c r="J723">
+        <v>0</v>
+      </c>
+      <c r="K723">
+        <v>0</v>
+      </c>
+      <c r="L723">
+        <v>0</v>
+      </c>
+      <c r="M723">
+        <v>0</v>
+      </c>
+      <c r="N723">
+        <v>0</v>
+      </c>
       <c r="O723">
         <v>0</v>
       </c>
@@ -31305,9 +31856,42 @@
       </c>
     </row>
     <row r="724" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>12</v>
+      </c>
+      <c r="B724" s="1">
+        <v>1</v>
+      </c>
+      <c r="C724" s="1">
+        <v>3</v>
+      </c>
+      <c r="E724" s="5">
+        <v>0</v>
+      </c>
+      <c r="F724" s="5">
+        <v>2</v>
+      </c>
+      <c r="G724" s="5">
+        <v>1</v>
+      </c>
       <c r="H724">
         <v>0</v>
       </c>
+      <c r="J724">
+        <v>0</v>
+      </c>
+      <c r="K724">
+        <v>0</v>
+      </c>
+      <c r="L724">
+        <v>0</v>
+      </c>
+      <c r="M724">
+        <v>0</v>
+      </c>
+      <c r="N724">
+        <v>0</v>
+      </c>
       <c r="O724">
         <v>0</v>
       </c>
@@ -31316,9 +31900,42 @@
       </c>
     </row>
     <row r="725" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>12</v>
+      </c>
+      <c r="B725">
+        <v>1</v>
+      </c>
+      <c r="C725" s="2">
+        <v>4</v>
+      </c>
+      <c r="E725" s="5">
+        <v>1</v>
+      </c>
+      <c r="F725" s="5">
+        <v>1</v>
+      </c>
+      <c r="G725" s="5">
+        <v>0</v>
+      </c>
       <c r="H725">
         <v>0</v>
       </c>
+      <c r="J725">
+        <v>1</v>
+      </c>
+      <c r="K725">
+        <v>0</v>
+      </c>
+      <c r="L725">
+        <v>0</v>
+      </c>
+      <c r="M725">
+        <v>0</v>
+      </c>
+      <c r="N725">
+        <v>1</v>
+      </c>
       <c r="O725">
         <v>0</v>
       </c>
@@ -31327,9 +31944,42 @@
       </c>
     </row>
     <row r="726" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>12</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+      <c r="C726" s="2">
+        <v>5</v>
+      </c>
+      <c r="E726" s="5">
+        <v>0</v>
+      </c>
+      <c r="F726" t="s">
+        <v>15</v>
+      </c>
+      <c r="G726" s="5">
+        <v>0</v>
+      </c>
       <c r="H726">
         <v>0</v>
       </c>
+      <c r="J726">
+        <v>0</v>
+      </c>
+      <c r="K726">
+        <v>0</v>
+      </c>
+      <c r="L726">
+        <v>0</v>
+      </c>
+      <c r="M726">
+        <v>0</v>
+      </c>
+      <c r="N726">
+        <v>0</v>
+      </c>
       <c r="O726">
         <v>0</v>
       </c>
@@ -31338,9 +31988,42 @@
       </c>
     </row>
     <row r="727" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>12</v>
+      </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
+      <c r="C727" s="2">
+        <v>6</v>
+      </c>
+      <c r="E727" s="5">
+        <v>0</v>
+      </c>
+      <c r="F727">
+        <v>1</v>
+      </c>
+      <c r="G727" s="5">
+        <v>0</v>
+      </c>
       <c r="H727">
         <v>0</v>
       </c>
+      <c r="J727">
+        <v>0</v>
+      </c>
+      <c r="K727">
+        <v>0</v>
+      </c>
+      <c r="L727">
+        <v>0</v>
+      </c>
+      <c r="M727">
+        <v>0</v>
+      </c>
+      <c r="N727">
+        <v>0</v>
+      </c>
       <c r="O727">
         <v>0</v>
       </c>
@@ -31349,9 +32032,42 @@
       </c>
     </row>
     <row r="728" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>12</v>
+      </c>
+      <c r="B728">
+        <v>1</v>
+      </c>
+      <c r="C728" s="2">
+        <v>7</v>
+      </c>
+      <c r="E728" s="5">
+        <v>0</v>
+      </c>
+      <c r="F728" s="5">
+        <v>0</v>
+      </c>
+      <c r="G728" s="5">
+        <v>0</v>
+      </c>
       <c r="H728">
         <v>0</v>
       </c>
+      <c r="J728">
+        <v>0</v>
+      </c>
+      <c r="K728">
+        <v>0</v>
+      </c>
+      <c r="L728">
+        <v>0</v>
+      </c>
+      <c r="M728">
+        <v>0</v>
+      </c>
+      <c r="N728">
+        <v>0</v>
+      </c>
       <c r="O728">
         <v>0</v>
       </c>
@@ -31360,9 +32076,42 @@
       </c>
     </row>
     <row r="729" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>12</v>
+      </c>
+      <c r="B729" s="1">
+        <v>1</v>
+      </c>
+      <c r="C729" s="1">
+        <v>8</v>
+      </c>
+      <c r="E729" s="5">
+        <v>0</v>
+      </c>
+      <c r="F729" s="5">
+        <v>0</v>
+      </c>
+      <c r="G729" s="5">
+        <v>0</v>
+      </c>
       <c r="H729">
         <v>0</v>
       </c>
+      <c r="J729">
+        <v>0</v>
+      </c>
+      <c r="K729">
+        <v>0</v>
+      </c>
+      <c r="L729">
+        <v>0</v>
+      </c>
+      <c r="M729">
+        <v>0</v>
+      </c>
+      <c r="N729">
+        <v>0</v>
+      </c>
       <c r="O729">
         <v>0</v>
       </c>
@@ -31371,15 +32120,2540 @@
       </c>
     </row>
     <row r="730" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>12</v>
+      </c>
+      <c r="B730" s="1">
+        <v>1</v>
+      </c>
+      <c r="C730" s="1">
+        <v>9</v>
+      </c>
+      <c r="E730" s="5">
+        <v>1</v>
+      </c>
+      <c r="F730" s="5">
+        <v>1</v>
+      </c>
+      <c r="G730" s="5">
+        <v>0</v>
+      </c>
       <c r="H730">
         <v>0</v>
       </c>
+      <c r="J730">
+        <v>0</v>
+      </c>
+      <c r="K730">
+        <v>0</v>
+      </c>
+      <c r="L730">
+        <v>0</v>
+      </c>
+      <c r="M730">
+        <v>0</v>
+      </c>
+      <c r="N730">
+        <v>0</v>
+      </c>
+      <c r="O730">
+        <v>0</v>
+      </c>
       <c r="P730">
         <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>12</v>
+      </c>
+      <c r="B731">
+        <v>1</v>
+      </c>
+      <c r="C731" s="2">
+        <v>10</v>
+      </c>
+      <c r="E731" s="5">
+        <v>1</v>
+      </c>
+      <c r="F731" s="5">
+        <v>1</v>
+      </c>
+      <c r="G731" s="5">
+        <v>0</v>
+      </c>
+      <c r="H731">
+        <v>0</v>
+      </c>
+      <c r="J731">
+        <v>0</v>
+      </c>
+      <c r="K731">
+        <v>0</v>
+      </c>
+      <c r="L731">
+        <v>0</v>
+      </c>
+      <c r="M731">
+        <v>0</v>
+      </c>
+      <c r="N731">
+        <v>0</v>
+      </c>
+      <c r="O731">
+        <v>0</v>
+      </c>
       <c r="P731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A732" s="3">
+        <v>12</v>
+      </c>
+      <c r="B732" s="3">
+        <v>1</v>
+      </c>
+      <c r="C732" s="3">
+        <v>11</v>
+      </c>
+      <c r="H732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A733" s="3">
+        <v>12</v>
+      </c>
+      <c r="B733" s="3">
+        <v>1</v>
+      </c>
+      <c r="C733" s="3">
+        <v>12</v>
+      </c>
+      <c r="H733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>12</v>
+      </c>
+      <c r="B734">
+        <v>2</v>
+      </c>
+      <c r="C734" s="2">
+        <v>1</v>
+      </c>
+      <c r="E734">
+        <v>1</v>
+      </c>
+      <c r="F734">
+        <v>2</v>
+      </c>
+      <c r="G734">
+        <v>0</v>
+      </c>
+      <c r="H734">
+        <v>0</v>
+      </c>
+      <c r="J734">
+        <v>0</v>
+      </c>
+      <c r="K734">
+        <v>1</v>
+      </c>
+      <c r="L734">
+        <v>0</v>
+      </c>
+      <c r="M734">
+        <v>0</v>
+      </c>
+      <c r="N734">
+        <v>0</v>
+      </c>
+      <c r="O734">
+        <v>0</v>
+      </c>
+      <c r="P734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>12</v>
+      </c>
+      <c r="B735">
+        <v>2</v>
+      </c>
+      <c r="C735" s="2">
+        <v>2</v>
+      </c>
+      <c r="E735">
+        <v>1</v>
+      </c>
+      <c r="F735">
+        <v>1</v>
+      </c>
+      <c r="G735">
+        <v>0</v>
+      </c>
+      <c r="H735">
+        <v>0</v>
+      </c>
+      <c r="J735">
+        <v>0</v>
+      </c>
+      <c r="K735">
+        <v>0</v>
+      </c>
+      <c r="L735">
+        <v>0</v>
+      </c>
+      <c r="M735">
+        <v>0</v>
+      </c>
+      <c r="N735">
+        <v>0</v>
+      </c>
+      <c r="O735">
+        <v>0</v>
+      </c>
+      <c r="P735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>12</v>
+      </c>
+      <c r="B736">
+        <v>2</v>
+      </c>
+      <c r="C736" s="2">
+        <v>3</v>
+      </c>
+      <c r="E736">
+        <v>0</v>
+      </c>
+      <c r="F736">
+        <v>0</v>
+      </c>
+      <c r="G736">
+        <v>0</v>
+      </c>
+      <c r="H736">
+        <v>0</v>
+      </c>
+      <c r="J736">
+        <v>0</v>
+      </c>
+      <c r="K736">
+        <v>0</v>
+      </c>
+      <c r="L736">
+        <v>0</v>
+      </c>
+      <c r="M736">
+        <v>0</v>
+      </c>
+      <c r="N736">
+        <v>0</v>
+      </c>
+      <c r="O736">
+        <v>0</v>
+      </c>
+      <c r="P736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>12</v>
+      </c>
+      <c r="B737">
+        <v>2</v>
+      </c>
+      <c r="C737" s="2">
+        <v>4</v>
+      </c>
+      <c r="E737">
+        <v>0</v>
+      </c>
+      <c r="F737">
+        <v>2</v>
+      </c>
+      <c r="G737">
+        <v>0</v>
+      </c>
+      <c r="H737">
+        <v>0</v>
+      </c>
+      <c r="J737">
+        <v>0</v>
+      </c>
+      <c r="K737">
+        <v>0</v>
+      </c>
+      <c r="L737">
+        <v>0</v>
+      </c>
+      <c r="M737">
+        <v>0</v>
+      </c>
+      <c r="N737">
+        <v>0</v>
+      </c>
+      <c r="O737">
+        <v>0</v>
+      </c>
+      <c r="P737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>12</v>
+      </c>
+      <c r="B738">
+        <v>2</v>
+      </c>
+      <c r="C738" s="2">
+        <v>5</v>
+      </c>
+      <c r="E738">
+        <v>1</v>
+      </c>
+      <c r="F738">
+        <v>1</v>
+      </c>
+      <c r="G738">
+        <v>0</v>
+      </c>
+      <c r="H738">
+        <v>0</v>
+      </c>
+      <c r="J738">
+        <v>0</v>
+      </c>
+      <c r="K738">
+        <v>1</v>
+      </c>
+      <c r="L738">
+        <v>0</v>
+      </c>
+      <c r="M738">
+        <v>0</v>
+      </c>
+      <c r="N738">
+        <v>0</v>
+      </c>
+      <c r="O738">
+        <v>0</v>
+      </c>
+      <c r="P738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>12</v>
+      </c>
+      <c r="B739">
+        <v>2</v>
+      </c>
+      <c r="C739" s="2">
+        <v>6</v>
+      </c>
+      <c r="E739">
+        <v>1</v>
+      </c>
+      <c r="F739">
+        <v>0</v>
+      </c>
+      <c r="G739">
+        <v>0</v>
+      </c>
+      <c r="H739">
+        <v>0</v>
+      </c>
+      <c r="J739">
+        <v>0</v>
+      </c>
+      <c r="K739">
+        <v>1</v>
+      </c>
+      <c r="L739">
+        <v>0</v>
+      </c>
+      <c r="M739">
+        <v>0</v>
+      </c>
+      <c r="N739">
+        <v>0</v>
+      </c>
+      <c r="O739">
+        <v>0</v>
+      </c>
+      <c r="P739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>12</v>
+      </c>
+      <c r="B740">
+        <v>2</v>
+      </c>
+      <c r="C740" s="2">
+        <v>7</v>
+      </c>
+      <c r="E740">
+        <v>1</v>
+      </c>
+      <c r="F740">
+        <v>1</v>
+      </c>
+      <c r="G740">
+        <v>0</v>
+      </c>
+      <c r="H740">
+        <v>0</v>
+      </c>
+      <c r="J740">
+        <v>0</v>
+      </c>
+      <c r="K740">
+        <v>1</v>
+      </c>
+      <c r="L740">
+        <v>0</v>
+      </c>
+      <c r="M740">
+        <v>0</v>
+      </c>
+      <c r="N740">
+        <v>0</v>
+      </c>
+      <c r="O740">
+        <v>0</v>
+      </c>
+      <c r="P740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>12</v>
+      </c>
+      <c r="B741">
+        <v>2</v>
+      </c>
+      <c r="C741" s="2">
+        <v>8</v>
+      </c>
+      <c r="E741">
+        <v>0</v>
+      </c>
+      <c r="F741">
+        <v>0</v>
+      </c>
+      <c r="G741">
+        <v>0</v>
+      </c>
+      <c r="H741">
+        <v>0</v>
+      </c>
+      <c r="J741">
+        <v>0</v>
+      </c>
+      <c r="K741">
+        <v>0</v>
+      </c>
+      <c r="L741">
+        <v>0</v>
+      </c>
+      <c r="M741">
+        <v>0</v>
+      </c>
+      <c r="N741">
+        <v>0</v>
+      </c>
+      <c r="O741">
+        <v>0</v>
+      </c>
+      <c r="P741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>12</v>
+      </c>
+      <c r="B742">
+        <v>2</v>
+      </c>
+      <c r="C742" s="2">
+        <v>9</v>
+      </c>
+      <c r="E742">
+        <v>1</v>
+      </c>
+      <c r="F742">
+        <v>0</v>
+      </c>
+      <c r="G742">
+        <v>0</v>
+      </c>
+      <c r="H742">
+        <v>0</v>
+      </c>
+      <c r="J742">
+        <v>0</v>
+      </c>
+      <c r="K742">
+        <v>1</v>
+      </c>
+      <c r="L742">
+        <v>0</v>
+      </c>
+      <c r="M742">
+        <v>1</v>
+      </c>
+      <c r="N742">
+        <v>0</v>
+      </c>
+      <c r="O742">
+        <v>0</v>
+      </c>
+      <c r="P742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A743" s="3">
+        <v>12</v>
+      </c>
+      <c r="B743" s="3">
+        <v>2</v>
+      </c>
+      <c r="C743" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="744" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A744" s="3">
+        <v>12</v>
+      </c>
+      <c r="B744" s="3">
+        <v>2</v>
+      </c>
+      <c r="C744" s="3">
+        <v>11</v>
+      </c>
+      <c r="H744">
+        <v>0</v>
+      </c>
+      <c r="O744">
+        <v>0</v>
+      </c>
+      <c r="P744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A745" s="3">
+        <v>12</v>
+      </c>
+      <c r="B745" s="3">
+        <v>2</v>
+      </c>
+      <c r="C745" s="3">
+        <v>12</v>
+      </c>
+      <c r="H745">
+        <v>0</v>
+      </c>
+      <c r="O745">
+        <v>0</v>
+      </c>
+      <c r="P745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>12</v>
+      </c>
+      <c r="B746">
+        <v>3</v>
+      </c>
+      <c r="C746" s="2">
+        <v>1</v>
+      </c>
+      <c r="E746">
+        <v>1</v>
+      </c>
+      <c r="F746">
+        <v>1</v>
+      </c>
+      <c r="G746">
+        <v>0</v>
+      </c>
+      <c r="H746">
+        <v>0</v>
+      </c>
+      <c r="J746">
+        <v>0</v>
+      </c>
+      <c r="K746">
+        <v>1</v>
+      </c>
+      <c r="L746">
+        <v>0</v>
+      </c>
+      <c r="M746">
+        <v>0</v>
+      </c>
+      <c r="N746">
+        <v>1</v>
+      </c>
+      <c r="O746">
+        <v>0</v>
+      </c>
+      <c r="P746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>12</v>
+      </c>
+      <c r="B747">
+        <v>3</v>
+      </c>
+      <c r="C747" s="2">
+        <v>2</v>
+      </c>
+      <c r="E747">
+        <v>0</v>
+      </c>
+      <c r="F747">
+        <v>2</v>
+      </c>
+      <c r="G747">
+        <v>0</v>
+      </c>
+      <c r="H747">
+        <v>0</v>
+      </c>
+      <c r="J747">
+        <v>0</v>
+      </c>
+      <c r="K747">
+        <v>0</v>
+      </c>
+      <c r="L747">
+        <v>0</v>
+      </c>
+      <c r="M747">
+        <v>0</v>
+      </c>
+      <c r="N747">
+        <v>1</v>
+      </c>
+      <c r="O747">
+        <v>0</v>
+      </c>
+      <c r="P747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>12</v>
+      </c>
+      <c r="B748">
+        <v>3</v>
+      </c>
+      <c r="C748" s="2">
+        <v>3</v>
+      </c>
+      <c r="E748">
+        <v>0</v>
+      </c>
+      <c r="F748">
+        <v>0</v>
+      </c>
+      <c r="G748">
+        <v>0</v>
+      </c>
+      <c r="H748">
+        <v>0</v>
+      </c>
+      <c r="J748">
+        <v>0</v>
+      </c>
+      <c r="K748">
+        <v>0</v>
+      </c>
+      <c r="L748">
+        <v>0</v>
+      </c>
+      <c r="M748">
+        <v>0</v>
+      </c>
+      <c r="N748">
+        <v>0</v>
+      </c>
+      <c r="O748">
+        <v>0</v>
+      </c>
+      <c r="P748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>12</v>
+      </c>
+      <c r="B749">
+        <v>3</v>
+      </c>
+      <c r="C749" s="2">
+        <v>4</v>
+      </c>
+      <c r="E749">
+        <v>0</v>
+      </c>
+      <c r="F749">
+        <v>1</v>
+      </c>
+      <c r="G749">
+        <v>1</v>
+      </c>
+      <c r="H749">
+        <v>0</v>
+      </c>
+      <c r="J749">
+        <v>0</v>
+      </c>
+      <c r="K749">
+        <v>0</v>
+      </c>
+      <c r="L749">
+        <v>0</v>
+      </c>
+      <c r="M749">
+        <v>0</v>
+      </c>
+      <c r="N749">
+        <v>0</v>
+      </c>
+      <c r="O749">
+        <v>0</v>
+      </c>
+      <c r="P749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>12</v>
+      </c>
+      <c r="B750">
+        <v>3</v>
+      </c>
+      <c r="C750" s="2">
+        <v>5</v>
+      </c>
+      <c r="E750">
+        <v>0</v>
+      </c>
+      <c r="F750">
+        <v>2</v>
+      </c>
+      <c r="G750">
+        <v>0</v>
+      </c>
+      <c r="H750">
+        <v>0</v>
+      </c>
+      <c r="J750">
+        <v>0</v>
+      </c>
+      <c r="K750">
+        <v>0</v>
+      </c>
+      <c r="L750">
+        <v>0</v>
+      </c>
+      <c r="M750">
+        <v>0</v>
+      </c>
+      <c r="N750">
+        <v>0</v>
+      </c>
+      <c r="O750">
+        <v>0</v>
+      </c>
+      <c r="P750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>12</v>
+      </c>
+      <c r="B751">
+        <v>3</v>
+      </c>
+      <c r="C751" s="2">
+        <v>6</v>
+      </c>
+      <c r="E751">
+        <v>0</v>
+      </c>
+      <c r="F751">
+        <v>1</v>
+      </c>
+      <c r="G751">
+        <v>1</v>
+      </c>
+      <c r="H751">
+        <v>0</v>
+      </c>
+      <c r="J751">
+        <v>0</v>
+      </c>
+      <c r="K751">
+        <v>0</v>
+      </c>
+      <c r="L751">
+        <v>0</v>
+      </c>
+      <c r="M751">
+        <v>0</v>
+      </c>
+      <c r="N751">
+        <v>0</v>
+      </c>
+      <c r="O751">
+        <v>0</v>
+      </c>
+      <c r="P751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>12</v>
+      </c>
+      <c r="B752">
+        <v>3</v>
+      </c>
+      <c r="C752" s="2">
+        <v>7</v>
+      </c>
+      <c r="E752">
+        <v>1</v>
+      </c>
+      <c r="F752">
+        <v>2</v>
+      </c>
+      <c r="G752">
+        <v>0</v>
+      </c>
+      <c r="H752">
+        <v>0</v>
+      </c>
+      <c r="J752">
+        <v>0</v>
+      </c>
+      <c r="K752">
+        <v>0</v>
+      </c>
+      <c r="L752">
+        <v>1</v>
+      </c>
+      <c r="M752">
+        <v>0</v>
+      </c>
+      <c r="N752">
+        <v>0</v>
+      </c>
+      <c r="O752">
+        <v>0</v>
+      </c>
+      <c r="P752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>12</v>
+      </c>
+      <c r="B753" s="1">
+        <v>3</v>
+      </c>
+      <c r="C753" s="1">
+        <v>8</v>
+      </c>
+      <c r="E753">
+        <v>0</v>
+      </c>
+      <c r="F753">
+        <v>0</v>
+      </c>
+      <c r="H753">
+        <v>0</v>
+      </c>
+      <c r="J753">
+        <v>0</v>
+      </c>
+      <c r="K753">
+        <v>0</v>
+      </c>
+      <c r="L753">
+        <v>0</v>
+      </c>
+      <c r="M753">
+        <v>0</v>
+      </c>
+      <c r="N753">
+        <v>0</v>
+      </c>
+      <c r="O753">
+        <v>0</v>
+      </c>
+      <c r="P753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>12</v>
+      </c>
+      <c r="B754">
+        <v>3</v>
+      </c>
+      <c r="C754" s="2">
+        <v>9</v>
+      </c>
+      <c r="E754">
+        <v>0</v>
+      </c>
+      <c r="F754" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G754" s="7">
+        <v>0</v>
+      </c>
+      <c r="H754">
+        <v>0</v>
+      </c>
+      <c r="J754">
+        <v>0</v>
+      </c>
+      <c r="K754">
+        <v>0</v>
+      </c>
+      <c r="L754">
+        <v>0</v>
+      </c>
+      <c r="M754">
+        <v>0</v>
+      </c>
+      <c r="N754">
+        <v>0</v>
+      </c>
+      <c r="O754">
+        <v>0</v>
+      </c>
+      <c r="P754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>12</v>
+      </c>
+      <c r="B755">
+        <v>3</v>
+      </c>
+      <c r="C755" s="2">
+        <v>10</v>
+      </c>
+      <c r="E755">
+        <v>1</v>
+      </c>
+      <c r="F755" s="7">
+        <v>1</v>
+      </c>
+      <c r="G755" s="7">
+        <v>0</v>
+      </c>
+      <c r="H755">
+        <v>0</v>
+      </c>
+      <c r="J755">
+        <v>0</v>
+      </c>
+      <c r="K755">
+        <v>1</v>
+      </c>
+      <c r="L755">
+        <v>0</v>
+      </c>
+      <c r="M755">
+        <v>0</v>
+      </c>
+      <c r="N755">
+        <v>0</v>
+      </c>
+      <c r="O755">
+        <v>0</v>
+      </c>
+      <c r="P755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>12</v>
+      </c>
+      <c r="B756" s="1">
+        <v>3</v>
+      </c>
+      <c r="C756" s="1">
+        <v>11</v>
+      </c>
+      <c r="E756">
+        <v>1</v>
+      </c>
+      <c r="F756" s="7">
+        <v>1</v>
+      </c>
+      <c r="G756" s="7">
+        <v>1</v>
+      </c>
+      <c r="H756">
+        <v>0</v>
+      </c>
+      <c r="J756">
+        <v>0</v>
+      </c>
+      <c r="K756">
+        <v>1</v>
+      </c>
+      <c r="L756">
+        <v>0</v>
+      </c>
+      <c r="M756">
+        <v>0</v>
+      </c>
+      <c r="N756">
+        <v>1</v>
+      </c>
+      <c r="O756">
+        <v>0</v>
+      </c>
+      <c r="P756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>12</v>
+      </c>
+      <c r="B757">
+        <v>3</v>
+      </c>
+      <c r="C757" s="2">
+        <v>12</v>
+      </c>
+      <c r="E757">
+        <v>1</v>
+      </c>
+      <c r="F757" s="7">
+        <v>0</v>
+      </c>
+      <c r="G757" s="7">
+        <v>1</v>
+      </c>
+      <c r="H757">
+        <v>0</v>
+      </c>
+      <c r="J757">
+        <v>0</v>
+      </c>
+      <c r="K757">
+        <v>0</v>
+      </c>
+      <c r="L757">
+        <v>0</v>
+      </c>
+      <c r="M757">
+        <v>0</v>
+      </c>
+      <c r="N757">
+        <v>1</v>
+      </c>
+      <c r="O757">
+        <v>0</v>
+      </c>
+      <c r="P757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>12</v>
+      </c>
+      <c r="B758">
+        <v>4</v>
+      </c>
+      <c r="C758" s="2">
+        <v>1</v>
+      </c>
+      <c r="E758">
+        <v>1</v>
+      </c>
+      <c r="F758" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="G758" s="7">
+        <v>0</v>
+      </c>
+      <c r="H758">
+        <v>0</v>
+      </c>
+      <c r="J758">
+        <v>0</v>
+      </c>
+      <c r="K758">
+        <v>1</v>
+      </c>
+      <c r="L758">
+        <v>0</v>
+      </c>
+      <c r="M758">
+        <v>1</v>
+      </c>
+      <c r="N758">
+        <v>1</v>
+      </c>
+      <c r="O758">
+        <v>0</v>
+      </c>
+      <c r="P758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>12</v>
+      </c>
+      <c r="B759">
+        <v>4</v>
+      </c>
+      <c r="C759" s="2">
+        <v>2</v>
+      </c>
+      <c r="E759">
+        <v>1</v>
+      </c>
+      <c r="F759" s="7">
+        <v>0</v>
+      </c>
+      <c r="G759" s="7">
+        <v>0</v>
+      </c>
+      <c r="H759">
+        <v>0</v>
+      </c>
+      <c r="J759">
+        <v>0</v>
+      </c>
+      <c r="K759">
+        <v>1</v>
+      </c>
+      <c r="L759">
+        <v>0</v>
+      </c>
+      <c r="M759">
+        <v>0</v>
+      </c>
+      <c r="N759">
+        <v>1</v>
+      </c>
+      <c r="O759">
+        <v>0</v>
+      </c>
+      <c r="P759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>12</v>
+      </c>
+      <c r="B760">
+        <v>4</v>
+      </c>
+      <c r="C760" s="2">
+        <v>3</v>
+      </c>
+      <c r="E760">
+        <v>1</v>
+      </c>
+      <c r="F760" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G760" s="7">
+        <v>0</v>
+      </c>
+      <c r="H760">
+        <v>0</v>
+      </c>
+      <c r="J760">
+        <v>0</v>
+      </c>
+      <c r="K760">
+        <v>0</v>
+      </c>
+      <c r="L760">
+        <v>0</v>
+      </c>
+      <c r="M760">
+        <v>0</v>
+      </c>
+      <c r="N760">
+        <v>1</v>
+      </c>
+      <c r="O760">
+        <v>0</v>
+      </c>
+      <c r="P760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>12</v>
+      </c>
+      <c r="B761">
+        <v>4</v>
+      </c>
+      <c r="C761" s="2">
+        <v>4</v>
+      </c>
+      <c r="E761">
+        <v>1</v>
+      </c>
+      <c r="F761" s="7">
+        <v>0</v>
+      </c>
+      <c r="G761" s="7">
+        <v>1</v>
+      </c>
+      <c r="H761">
+        <v>0</v>
+      </c>
+      <c r="J761">
+        <v>0</v>
+      </c>
+      <c r="K761">
+        <v>1</v>
+      </c>
+      <c r="L761">
+        <v>0</v>
+      </c>
+      <c r="M761">
+        <v>0</v>
+      </c>
+      <c r="N761">
+        <v>1</v>
+      </c>
+      <c r="O761">
+        <v>0</v>
+      </c>
+      <c r="P761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>12</v>
+      </c>
+      <c r="B762">
+        <v>4</v>
+      </c>
+      <c r="C762" s="2">
+        <v>5</v>
+      </c>
+      <c r="E762">
+        <v>1</v>
+      </c>
+      <c r="F762" s="7">
+        <v>1</v>
+      </c>
+      <c r="G762" s="7">
+        <v>0</v>
+      </c>
+      <c r="H762">
+        <v>0</v>
+      </c>
+      <c r="J762">
+        <v>0</v>
+      </c>
+      <c r="K762">
+        <v>1</v>
+      </c>
+      <c r="L762">
+        <v>0</v>
+      </c>
+      <c r="M762">
+        <v>0</v>
+      </c>
+      <c r="N762">
+        <v>1</v>
+      </c>
+      <c r="O762">
+        <v>0</v>
+      </c>
+      <c r="P762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>12</v>
+      </c>
+      <c r="B763">
+        <v>4</v>
+      </c>
+      <c r="C763" s="2">
+        <v>6</v>
+      </c>
+      <c r="E763">
+        <v>1</v>
+      </c>
+      <c r="F763" s="7">
+        <v>0</v>
+      </c>
+      <c r="G763" s="7">
+        <v>0</v>
+      </c>
+      <c r="H763">
+        <v>0</v>
+      </c>
+      <c r="J763">
+        <v>0</v>
+      </c>
+      <c r="K763">
+        <v>1</v>
+      </c>
+      <c r="L763">
+        <v>1</v>
+      </c>
+      <c r="M763">
+        <v>0</v>
+      </c>
+      <c r="N763">
+        <v>1</v>
+      </c>
+      <c r="O763">
+        <v>0</v>
+      </c>
+      <c r="P763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>12</v>
+      </c>
+      <c r="B764">
+        <v>4</v>
+      </c>
+      <c r="C764" s="2">
+        <v>7</v>
+      </c>
+      <c r="E764">
+        <v>0</v>
+      </c>
+      <c r="F764" s="7">
+        <v>1</v>
+      </c>
+      <c r="G764" s="7">
+        <v>0</v>
+      </c>
+      <c r="H764">
+        <v>0</v>
+      </c>
+      <c r="J764">
+        <v>0</v>
+      </c>
+      <c r="K764">
+        <v>1</v>
+      </c>
+      <c r="L764">
+        <v>0</v>
+      </c>
+      <c r="M764">
+        <v>0</v>
+      </c>
+      <c r="N764">
+        <v>1</v>
+      </c>
+      <c r="O764">
+        <v>0</v>
+      </c>
+      <c r="P764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>12</v>
+      </c>
+      <c r="B765">
+        <v>4</v>
+      </c>
+      <c r="C765" s="2">
+        <v>8</v>
+      </c>
+      <c r="E765">
+        <v>0</v>
+      </c>
+      <c r="F765" s="7">
+        <v>1</v>
+      </c>
+      <c r="G765" s="7">
+        <v>0</v>
+      </c>
+      <c r="H765">
+        <v>0</v>
+      </c>
+      <c r="J765">
+        <v>0</v>
+      </c>
+      <c r="K765">
+        <v>0</v>
+      </c>
+      <c r="L765">
+        <v>0</v>
+      </c>
+      <c r="M765">
+        <v>0</v>
+      </c>
+      <c r="N765">
+        <v>0</v>
+      </c>
+      <c r="O765">
+        <v>0</v>
+      </c>
+      <c r="P765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>12</v>
+      </c>
+      <c r="B766">
+        <v>4</v>
+      </c>
+      <c r="C766" s="2">
+        <v>9</v>
+      </c>
+      <c r="E766">
+        <v>1</v>
+      </c>
+      <c r="F766" s="7">
+        <v>0</v>
+      </c>
+      <c r="G766" s="7">
+        <v>0</v>
+      </c>
+      <c r="H766">
+        <v>0</v>
+      </c>
+      <c r="J766">
+        <v>0</v>
+      </c>
+      <c r="K766">
+        <v>0</v>
+      </c>
+      <c r="L766">
+        <v>0</v>
+      </c>
+      <c r="M766">
+        <v>1</v>
+      </c>
+      <c r="N766">
+        <v>0</v>
+      </c>
+      <c r="O766">
+        <v>0</v>
+      </c>
+      <c r="P766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>12</v>
+      </c>
+      <c r="B767">
+        <v>4</v>
+      </c>
+      <c r="C767" s="2">
+        <v>10</v>
+      </c>
+      <c r="E767">
+        <v>1</v>
+      </c>
+      <c r="F767" s="7">
+        <v>0</v>
+      </c>
+      <c r="G767" s="7">
+        <v>1</v>
+      </c>
+      <c r="H767">
+        <v>0</v>
+      </c>
+      <c r="J767">
+        <v>0</v>
+      </c>
+      <c r="K767">
+        <v>0</v>
+      </c>
+      <c r="L767">
+        <v>0</v>
+      </c>
+      <c r="M767">
+        <v>0</v>
+      </c>
+      <c r="N767">
+        <v>0</v>
+      </c>
+      <c r="O767">
+        <v>0</v>
+      </c>
+      <c r="P767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>12</v>
+      </c>
+      <c r="B768">
+        <v>4</v>
+      </c>
+      <c r="C768" s="2">
+        <v>11</v>
+      </c>
+      <c r="E768">
+        <v>0</v>
+      </c>
+      <c r="F768" s="7">
+        <v>2</v>
+      </c>
+      <c r="G768" s="7">
+        <v>0</v>
+      </c>
+      <c r="H768">
+        <v>0</v>
+      </c>
+      <c r="J768">
+        <v>0</v>
+      </c>
+      <c r="K768">
+        <v>0</v>
+      </c>
+      <c r="L768">
+        <v>0</v>
+      </c>
+      <c r="M768">
+        <v>0</v>
+      </c>
+      <c r="N768">
+        <v>0</v>
+      </c>
+      <c r="O768">
+        <v>0</v>
+      </c>
+      <c r="P768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>12</v>
+      </c>
+      <c r="B769">
+        <v>4</v>
+      </c>
+      <c r="C769" s="2">
+        <v>12</v>
+      </c>
+      <c r="E769">
+        <v>0</v>
+      </c>
+      <c r="F769" s="7">
+        <v>2</v>
+      </c>
+      <c r="G769" s="7">
+        <v>0</v>
+      </c>
+      <c r="H769">
+        <v>0</v>
+      </c>
+      <c r="J769">
+        <v>0</v>
+      </c>
+      <c r="K769">
+        <v>0</v>
+      </c>
+      <c r="L769">
+        <v>0</v>
+      </c>
+      <c r="M769">
+        <v>0</v>
+      </c>
+      <c r="N769">
+        <v>0</v>
+      </c>
+      <c r="O769">
+        <v>0</v>
+      </c>
+      <c r="P769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>12</v>
+      </c>
+      <c r="B770">
+        <v>5</v>
+      </c>
+      <c r="C770" s="2">
+        <v>1</v>
+      </c>
+      <c r="E770">
+        <v>1</v>
+      </c>
+      <c r="F770" s="7">
+        <v>0</v>
+      </c>
+      <c r="G770" s="7">
+        <v>0</v>
+      </c>
+      <c r="H770">
+        <v>0</v>
+      </c>
+      <c r="J770">
+        <v>0</v>
+      </c>
+      <c r="K770">
+        <v>1</v>
+      </c>
+      <c r="L770">
+        <v>0</v>
+      </c>
+      <c r="M770">
+        <v>0</v>
+      </c>
+      <c r="N770">
+        <v>1</v>
+      </c>
+      <c r="O770">
+        <v>0</v>
+      </c>
+      <c r="P770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>12</v>
+      </c>
+      <c r="B771">
+        <v>5</v>
+      </c>
+      <c r="C771" s="2">
+        <v>2</v>
+      </c>
+      <c r="E771">
+        <v>0</v>
+      </c>
+      <c r="F771" s="7">
+        <v>1</v>
+      </c>
+      <c r="G771" s="7">
+        <v>0</v>
+      </c>
+      <c r="H771">
+        <v>0</v>
+      </c>
+      <c r="J771">
+        <v>0</v>
+      </c>
+      <c r="K771">
+        <v>0</v>
+      </c>
+      <c r="L771">
+        <v>0</v>
+      </c>
+      <c r="M771">
+        <v>0</v>
+      </c>
+      <c r="N771">
+        <v>0</v>
+      </c>
+      <c r="O771">
+        <v>0</v>
+      </c>
+      <c r="P771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>12</v>
+      </c>
+      <c r="B772">
+        <v>5</v>
+      </c>
+      <c r="C772" s="2">
+        <v>3</v>
+      </c>
+      <c r="E772">
+        <v>0</v>
+      </c>
+      <c r="F772" s="7">
+        <v>1</v>
+      </c>
+      <c r="G772" s="7">
+        <v>0</v>
+      </c>
+      <c r="H772">
+        <v>0</v>
+      </c>
+      <c r="J772">
+        <v>0</v>
+      </c>
+      <c r="K772">
+        <v>0</v>
+      </c>
+      <c r="L772">
+        <v>0</v>
+      </c>
+      <c r="M772">
+        <v>0</v>
+      </c>
+      <c r="N772">
+        <v>0</v>
+      </c>
+      <c r="O772">
+        <v>0</v>
+      </c>
+      <c r="P772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>12</v>
+      </c>
+      <c r="B773">
+        <v>5</v>
+      </c>
+      <c r="C773" s="2">
+        <v>4</v>
+      </c>
+      <c r="E773">
+        <v>0</v>
+      </c>
+      <c r="F773" s="7">
+        <v>1</v>
+      </c>
+      <c r="G773" s="7">
+        <v>0</v>
+      </c>
+      <c r="H773">
+        <v>0</v>
+      </c>
+      <c r="J773">
+        <v>0</v>
+      </c>
+      <c r="K773">
+        <v>0</v>
+      </c>
+      <c r="L773">
+        <v>0</v>
+      </c>
+      <c r="M773">
+        <v>0</v>
+      </c>
+      <c r="N773">
+        <v>0</v>
+      </c>
+      <c r="O773">
+        <v>0</v>
+      </c>
+      <c r="P773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>12</v>
+      </c>
+      <c r="B774">
+        <v>5</v>
+      </c>
+      <c r="C774" s="2">
+        <v>5</v>
+      </c>
+      <c r="E774">
+        <v>0</v>
+      </c>
+      <c r="F774" s="7">
+        <v>0</v>
+      </c>
+      <c r="G774" s="7">
+        <v>0</v>
+      </c>
+      <c r="H774">
+        <v>0</v>
+      </c>
+      <c r="J774">
+        <v>0</v>
+      </c>
+      <c r="K774">
+        <v>0</v>
+      </c>
+      <c r="L774">
+        <v>0</v>
+      </c>
+      <c r="M774">
+        <v>0</v>
+      </c>
+      <c r="N774">
+        <v>0</v>
+      </c>
+      <c r="O774">
+        <v>0</v>
+      </c>
+      <c r="P774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>12</v>
+      </c>
+      <c r="B775">
+        <v>5</v>
+      </c>
+      <c r="C775" s="2">
+        <v>6</v>
+      </c>
+      <c r="E775">
+        <v>1</v>
+      </c>
+      <c r="F775" s="7">
+        <v>1</v>
+      </c>
+      <c r="G775" s="7">
+        <v>0</v>
+      </c>
+      <c r="H775">
+        <v>0</v>
+      </c>
+      <c r="J775">
+        <v>0</v>
+      </c>
+      <c r="K775">
+        <v>1</v>
+      </c>
+      <c r="L775">
+        <v>0</v>
+      </c>
+      <c r="M775">
+        <v>0</v>
+      </c>
+      <c r="N775">
+        <v>1</v>
+      </c>
+      <c r="O775">
+        <v>0</v>
+      </c>
+      <c r="P775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>12</v>
+      </c>
+      <c r="B776">
+        <v>5</v>
+      </c>
+      <c r="C776" s="2">
+        <v>7</v>
+      </c>
+      <c r="E776">
+        <v>1</v>
+      </c>
+      <c r="F776" s="7">
+        <v>1</v>
+      </c>
+      <c r="G776" s="7">
+        <v>0</v>
+      </c>
+      <c r="H776">
+        <v>0</v>
+      </c>
+      <c r="J776">
+        <v>0</v>
+      </c>
+      <c r="K776">
+        <v>1</v>
+      </c>
+      <c r="L776">
+        <v>0</v>
+      </c>
+      <c r="M776">
+        <v>1</v>
+      </c>
+      <c r="N776">
+        <v>1</v>
+      </c>
+      <c r="O776">
+        <v>0</v>
+      </c>
+      <c r="P776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>12</v>
+      </c>
+      <c r="B777">
+        <v>5</v>
+      </c>
+      <c r="C777" s="2">
+        <v>8</v>
+      </c>
+      <c r="E777">
+        <v>0</v>
+      </c>
+      <c r="F777" s="7">
+        <v>0</v>
+      </c>
+      <c r="G777" s="7">
+        <v>0</v>
+      </c>
+      <c r="H777">
+        <v>0</v>
+      </c>
+      <c r="J777">
+        <v>0</v>
+      </c>
+      <c r="K777">
+        <v>0</v>
+      </c>
+      <c r="L777">
+        <v>0</v>
+      </c>
+      <c r="M777">
+        <v>0</v>
+      </c>
+      <c r="N777">
+        <v>0</v>
+      </c>
+      <c r="O777">
+        <v>0</v>
+      </c>
+      <c r="P777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>12</v>
+      </c>
+      <c r="B778">
+        <v>5</v>
+      </c>
+      <c r="C778" s="2">
+        <v>9</v>
+      </c>
+      <c r="E778">
+        <v>0</v>
+      </c>
+      <c r="F778" s="7">
+        <v>0</v>
+      </c>
+      <c r="G778" s="7">
+        <v>1</v>
+      </c>
+      <c r="H778">
+        <v>0</v>
+      </c>
+      <c r="J778">
+        <v>0</v>
+      </c>
+      <c r="K778">
+        <v>0</v>
+      </c>
+      <c r="L778">
+        <v>0</v>
+      </c>
+      <c r="M778">
+        <v>0</v>
+      </c>
+      <c r="N778">
+        <v>0</v>
+      </c>
+      <c r="O778">
+        <v>0</v>
+      </c>
+      <c r="P778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A779" s="3">
+        <v>12</v>
+      </c>
+      <c r="B779" s="3">
+        <v>5</v>
+      </c>
+      <c r="C779" s="3">
+        <v>10</v>
+      </c>
+      <c r="F779" s="7"/>
+      <c r="G779" s="7"/>
+      <c r="H779">
+        <v>0</v>
+      </c>
+      <c r="O779">
+        <v>0</v>
+      </c>
+      <c r="P779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A780" s="3">
+        <v>12</v>
+      </c>
+      <c r="B780" s="3">
+        <v>5</v>
+      </c>
+      <c r="C780" s="3">
+        <v>11</v>
+      </c>
+      <c r="H780">
+        <v>0</v>
+      </c>
+      <c r="O780">
+        <v>0</v>
+      </c>
+      <c r="P780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A781" s="3">
+        <v>12</v>
+      </c>
+      <c r="B781" s="3">
+        <v>5</v>
+      </c>
+      <c r="C781" s="3">
+        <v>12</v>
+      </c>
+      <c r="H781">
+        <v>0</v>
+      </c>
+      <c r="O781">
+        <v>0</v>
+      </c>
+      <c r="P781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>12</v>
+      </c>
+      <c r="B782">
+        <v>6</v>
+      </c>
+      <c r="C782" s="2">
+        <v>1</v>
+      </c>
+      <c r="E782">
+        <v>1</v>
+      </c>
+      <c r="F782">
+        <v>0</v>
+      </c>
+      <c r="G782">
+        <v>0</v>
+      </c>
+      <c r="H782">
+        <v>0</v>
+      </c>
+      <c r="J782">
+        <v>0</v>
+      </c>
+      <c r="K782">
+        <v>1</v>
+      </c>
+      <c r="L782">
+        <v>1</v>
+      </c>
+      <c r="M782">
+        <v>1</v>
+      </c>
+      <c r="N782">
+        <v>1</v>
+      </c>
+      <c r="O782">
+        <v>0</v>
+      </c>
+      <c r="P782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>12</v>
+      </c>
+      <c r="B783">
+        <v>6</v>
+      </c>
+      <c r="C783" s="2">
+        <v>2</v>
+      </c>
+      <c r="E783">
+        <v>0</v>
+      </c>
+      <c r="F783">
+        <v>1</v>
+      </c>
+      <c r="G783">
+        <v>0</v>
+      </c>
+      <c r="H783">
+        <v>0</v>
+      </c>
+      <c r="J783">
+        <v>0</v>
+      </c>
+      <c r="K783">
+        <v>0</v>
+      </c>
+      <c r="L783">
+        <v>0</v>
+      </c>
+      <c r="M783">
+        <v>0</v>
+      </c>
+      <c r="N783">
+        <v>0</v>
+      </c>
+      <c r="O783">
+        <v>0</v>
+      </c>
+      <c r="P783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A784">
+        <v>12</v>
+      </c>
+      <c r="B784">
+        <v>6</v>
+      </c>
+      <c r="C784" s="2">
+        <v>3</v>
+      </c>
+      <c r="E784">
+        <v>0</v>
+      </c>
+      <c r="F784">
+        <v>0</v>
+      </c>
+      <c r="G784">
+        <v>0</v>
+      </c>
+      <c r="H784">
+        <v>0</v>
+      </c>
+      <c r="J784">
+        <v>0</v>
+      </c>
+      <c r="K784">
+        <v>0</v>
+      </c>
+      <c r="L784">
+        <v>0</v>
+      </c>
+      <c r="M784">
+        <v>0</v>
+      </c>
+      <c r="N784">
+        <v>0</v>
+      </c>
+      <c r="O784">
+        <v>0</v>
+      </c>
+      <c r="P784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A785">
+        <v>12</v>
+      </c>
+      <c r="B785">
+        <v>6</v>
+      </c>
+      <c r="C785" s="2">
+        <v>4</v>
+      </c>
+      <c r="E785">
+        <v>0</v>
+      </c>
+      <c r="F785">
+        <v>1</v>
+      </c>
+      <c r="G785">
+        <v>0</v>
+      </c>
+      <c r="H785">
+        <v>0</v>
+      </c>
+      <c r="J785">
+        <v>0</v>
+      </c>
+      <c r="K785">
+        <v>0</v>
+      </c>
+      <c r="L785">
+        <v>0</v>
+      </c>
+      <c r="M785">
+        <v>0</v>
+      </c>
+      <c r="N785">
+        <v>0</v>
+      </c>
+      <c r="O785">
+        <v>0</v>
+      </c>
+      <c r="P785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A786">
+        <v>12</v>
+      </c>
+      <c r="B786">
+        <v>6</v>
+      </c>
+      <c r="C786" s="2">
+        <v>5</v>
+      </c>
+      <c r="E786">
+        <v>0</v>
+      </c>
+      <c r="F786">
+        <v>2</v>
+      </c>
+      <c r="G786">
+        <v>0</v>
+      </c>
+      <c r="H786">
+        <v>0</v>
+      </c>
+      <c r="J786">
+        <v>0</v>
+      </c>
+      <c r="K786">
+        <v>0</v>
+      </c>
+      <c r="L786">
+        <v>0</v>
+      </c>
+      <c r="M786">
+        <v>0</v>
+      </c>
+      <c r="N786">
+        <v>0</v>
+      </c>
+      <c r="O786">
+        <v>0</v>
+      </c>
+      <c r="P786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A787">
+        <v>12</v>
+      </c>
+      <c r="B787">
+        <v>6</v>
+      </c>
+      <c r="C787" s="2">
+        <v>6</v>
+      </c>
+      <c r="E787">
+        <v>0</v>
+      </c>
+      <c r="F787">
+        <v>1</v>
+      </c>
+      <c r="G787">
+        <v>0</v>
+      </c>
+      <c r="H787">
+        <v>0</v>
+      </c>
+      <c r="J787">
+        <v>0</v>
+      </c>
+      <c r="K787">
+        <v>1</v>
+      </c>
+      <c r="L787">
+        <v>0</v>
+      </c>
+      <c r="M787">
+        <v>0</v>
+      </c>
+      <c r="N787">
+        <v>0</v>
+      </c>
+      <c r="O787">
+        <v>0</v>
+      </c>
+      <c r="P787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A788">
+        <v>12</v>
+      </c>
+      <c r="B788">
+        <v>6</v>
+      </c>
+      <c r="C788" s="2">
+        <v>7</v>
+      </c>
+      <c r="E788">
+        <v>0</v>
+      </c>
+      <c r="F788">
+        <v>1.3</v>
+      </c>
+      <c r="G788">
+        <v>0</v>
+      </c>
+      <c r="H788">
+        <v>0</v>
+      </c>
+      <c r="J788">
+        <v>0</v>
+      </c>
+      <c r="K788">
+        <v>0</v>
+      </c>
+      <c r="L788">
+        <v>0</v>
+      </c>
+      <c r="M788">
+        <v>0</v>
+      </c>
+      <c r="N788">
+        <v>0</v>
+      </c>
+      <c r="O788">
+        <v>0</v>
+      </c>
+      <c r="P788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A789">
+        <v>12</v>
+      </c>
+      <c r="B789">
+        <v>6</v>
+      </c>
+      <c r="C789" s="2">
+        <v>8</v>
+      </c>
+      <c r="E789">
+        <v>0</v>
+      </c>
+      <c r="F789">
+        <v>0</v>
+      </c>
+      <c r="G789">
+        <v>0</v>
+      </c>
+      <c r="H789">
+        <v>0</v>
+      </c>
+      <c r="J789">
+        <v>0</v>
+      </c>
+      <c r="K789">
+        <v>0</v>
+      </c>
+      <c r="L789">
+        <v>0</v>
+      </c>
+      <c r="M789">
+        <v>0</v>
+      </c>
+      <c r="N789">
+        <v>0</v>
+      </c>
+      <c r="O789">
+        <v>0</v>
+      </c>
+      <c r="P789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A790">
+        <v>12</v>
+      </c>
+      <c r="B790">
+        <v>6</v>
+      </c>
+      <c r="C790" s="2">
+        <v>9</v>
+      </c>
+      <c r="E790">
+        <v>0</v>
+      </c>
+      <c r="F790">
+        <v>1.3</v>
+      </c>
+      <c r="G790">
+        <v>0</v>
+      </c>
+      <c r="H790">
+        <v>0</v>
+      </c>
+      <c r="J790">
+        <v>0</v>
+      </c>
+      <c r="K790">
+        <v>0</v>
+      </c>
+      <c r="L790">
+        <v>0</v>
+      </c>
+      <c r="M790">
+        <v>0</v>
+      </c>
+      <c r="N790">
+        <v>0</v>
+      </c>
+      <c r="O790">
+        <v>0</v>
+      </c>
+      <c r="P790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A791">
+        <v>12</v>
+      </c>
+      <c r="B791" s="3">
+        <v>6</v>
+      </c>
+      <c r="C791" s="3">
+        <v>10</v>
+      </c>
+      <c r="H791">
+        <v>0</v>
+      </c>
+      <c r="O791">
+        <v>0</v>
+      </c>
+      <c r="P791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A792">
+        <v>12</v>
+      </c>
+      <c r="B792" s="3">
+        <v>6</v>
+      </c>
+      <c r="C792" s="3">
+        <v>11</v>
+      </c>
+      <c r="H792">
+        <v>0</v>
+      </c>
+      <c r="O792">
+        <v>0</v>
+      </c>
+      <c r="P792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A793">
+        <v>12</v>
+      </c>
+      <c r="B793" s="3">
+        <v>6</v>
+      </c>
+      <c r="C793" s="3">
+        <v>12</v>
+      </c>
+      <c r="H793">
+        <v>0</v>
+      </c>
+      <c r="O793">
+        <v>0</v>
+      </c>
+      <c r="P793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O794">
+        <v>0</v>
+      </c>
+      <c r="P794">
         <v>0</v>
       </c>
     </row>

--- a/RABackup/12Sets.xlsx
+++ b/RABackup/12Sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshsingh/Desktop/CALLAB/GitHub/iteratedlearning/RABackup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CE4748-761C-CE4C-A780-3FA9DA375AD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E92603-7DD0-B14C-B109-1259F3675344}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18860" windowHeight="18000" xr2:uid="{6679CA10-1F33-DE46-962D-9E20D9BBDDEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6679CA10-1F33-DE46-962D-9E20D9BBDDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83EB641-D90F-7C40-9BF6-AF4B07F0846F}">
   <dimension ref="A1:P794"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A757" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A752" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B791" sqref="B791:C793"/>
     </sheetView>
@@ -34594,7 +34594,7 @@
         <v>12</v>
       </c>
       <c r="B791" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C791" s="3">
         <v>10</v>
